--- a/가중치 측정 결과.xlsx
+++ b/가중치 측정 결과.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>year</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>남자</t>
+  </si>
+  <si>
+    <t>여자</t>
   </si>
 </sst>
 </file>
@@ -404,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,34 +447,194 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2">
+        <v>5.104194442E-06</v>
+      </c>
+      <c r="D2">
+        <v>0.118086883032977</v>
+      </c>
+      <c r="E2">
+        <v>0.09255620684794701</v>
+      </c>
+      <c r="F2">
+        <v>1.5965163748E-05</v>
+      </c>
+      <c r="G2">
+        <v>-302708.2352948928</v>
+      </c>
+      <c r="H2">
+        <v>96</v>
+      </c>
+      <c r="I2">
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2015</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>5.416987927538608E-06</v>
+      </c>
+      <c r="D3">
+        <v>0.1178911152427146</v>
+      </c>
+      <c r="E3">
+        <v>0.1059514233496837</v>
+      </c>
+      <c r="F3">
+        <v>8.57627324488755E-05</v>
+      </c>
+      <c r="G3">
+        <v>-301128.3737981756</v>
+      </c>
+      <c r="H3">
+        <v>91</v>
+      </c>
+      <c r="I3">
+        <v>5.5</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>2014</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
         <v>5.144357290432161E-06</v>
       </c>
-      <c r="D2">
+      <c r="D4">
         <v>0.1190171723928043</v>
       </c>
-      <c r="E2">
+      <c r="E4">
         <v>0.1112971530906087</v>
       </c>
-      <c r="F2">
+      <c r="F4">
         <v>8.223035164918457E-05</v>
       </c>
-      <c r="G2">
+      <c r="G4">
         <v>-298997.4400936868</v>
       </c>
-      <c r="H2">
+      <c r="H4">
         <v>91</v>
       </c>
-      <c r="I2">
+      <c r="I4">
         <v>3.5</v>
       </c>
-      <c r="J2">
+      <c r="J4">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>5.297292174670607E-06</v>
+      </c>
+      <c r="D5">
+        <v>0.1193322598572867</v>
+      </c>
+      <c r="E5">
+        <v>0.1275275363243624</v>
+      </c>
+      <c r="F5">
+        <v>7.606088498501515E-05</v>
+      </c>
+      <c r="G5">
+        <v>-296825.2924006893</v>
+      </c>
+      <c r="H5">
+        <v>91</v>
+      </c>
+      <c r="I5">
+        <v>7.5</v>
+      </c>
+      <c r="J5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>2001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>5.116918946508728E-06</v>
+      </c>
+      <c r="D6">
+        <v>0.1181961206337263</v>
+      </c>
+      <c r="E6">
+        <v>0.07451705540983249</v>
+      </c>
+      <c r="F6">
+        <v>2.595746046163763E-05</v>
+      </c>
+      <c r="G6">
+        <v>-311711.9445455807</v>
+      </c>
+      <c r="H6">
+        <v>93</v>
+      </c>
+      <c r="I6">
+        <v>8.5</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>2017</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>5.100988578847813E-06</v>
+      </c>
+      <c r="D7">
+        <v>0.1177021261404609</v>
+      </c>
+      <c r="E7">
+        <v>0.07499588563812923</v>
+      </c>
+      <c r="F7">
+        <v>0.000135912242136136</v>
+      </c>
+      <c r="G7">
+        <v>-303822.9392733555</v>
+      </c>
+      <c r="H7">
+        <v>89</v>
+      </c>
+      <c r="I7">
+        <v>7.5</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/가중치 측정 결과.xlsx
+++ b/가중치 측정 결과.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>year</t>
   </si>
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,28 +613,60 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>5.100988578847813E-06</v>
+        <v>5.122465634617868E-06</v>
       </c>
       <c r="D7">
-        <v>0.1177021261404609</v>
+        <v>0.1177091739177376</v>
       </c>
       <c r="E7">
-        <v>0.07499588563812923</v>
+        <v>0.0701836921832566</v>
       </c>
       <c r="F7">
-        <v>0.000135912242136136</v>
+        <v>1.751867521982906E-05</v>
       </c>
       <c r="G7">
-        <v>-303822.9392733555</v>
+        <v>-303816.6210931752</v>
       </c>
       <c r="H7">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I7">
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>2018</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>5.103000380851934E-06</v>
+      </c>
+      <c r="D8">
+        <v>0.1175886036911621</v>
+      </c>
+      <c r="E8">
+        <v>0.07152682549784645</v>
+      </c>
+      <c r="F8">
+        <v>1.597343089199468E-05</v>
+      </c>
+      <c r="G8">
+        <v>-303919.0790991176</v>
+      </c>
+      <c r="H8">
+        <v>93</v>
+      </c>
+      <c r="I8">
+        <v>6.5</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/가중치 측정 결과.xlsx
+++ b/가중치 측정 결과.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>year</t>
   </si>
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -669,6 +669,38 @@
         <v>8</v>
       </c>
     </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>2011</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>5.30940970038191E-06</v>
+      </c>
+      <c r="D9">
+        <v>0.120060277830105</v>
+      </c>
+      <c r="E9">
+        <v>0.1157766407250445</v>
+      </c>
+      <c r="F9">
+        <v>0.0006353510216545073</v>
+      </c>
+      <c r="G9">
+        <v>-292010.6496671494</v>
+      </c>
+      <c r="H9">
+        <v>91</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/가중치 측정 결과.xlsx
+++ b/가중치 측정 결과.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>year</t>
   </si>
@@ -34,7 +34,7 @@
     <t>c</t>
   </si>
   <si>
-    <t>logL</t>
+    <t>logL_ggm</t>
   </si>
   <si>
     <t>center</t>
@@ -44,6 +44,21 @@
   </si>
   <si>
     <t>max_weight</t>
+  </si>
+  <si>
+    <t>x*</t>
+  </si>
+  <si>
+    <t>a_gm</t>
+  </si>
+  <si>
+    <t>b_gm</t>
+  </si>
+  <si>
+    <t>c_gm</t>
+  </si>
+  <si>
+    <t>logL_gm</t>
   </si>
   <si>
     <t>남자</t>
@@ -407,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,13 +459,28 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>5.104194442E-06</v>
@@ -477,12 +507,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>2015</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>5.416987927538608E-06</v>
@@ -509,12 +539,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>2014</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>5.144357290432161E-06</v>
@@ -541,12 +571,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>2013</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>5.297292174670607E-06</v>
@@ -558,7 +588,7 @@
         <v>0.1275275363243624</v>
       </c>
       <c r="F5">
-        <v>7.606088498501515E-05</v>
+        <v>7.606088498501509E-05</v>
       </c>
       <c r="G5">
         <v>-296825.2924006893</v>
@@ -573,12 +603,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>2001</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>5.116918946508728E-06</v>
@@ -605,12 +635,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>2017</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>5.122465634617868E-06</v>
@@ -622,7 +652,7 @@
         <v>0.0701836921832566</v>
       </c>
       <c r="F7">
-        <v>1.751867521982906E-05</v>
+        <v>1.75186752198291E-05</v>
       </c>
       <c r="G7">
         <v>-303816.6210931752</v>
@@ -637,12 +667,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>2018</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>5.103000380851934E-06</v>
@@ -654,7 +684,7 @@
         <v>0.07152682549784645</v>
       </c>
       <c r="F8">
-        <v>1.597343089199468E-05</v>
+        <v>1.59734308919947E-05</v>
       </c>
       <c r="G8">
         <v>-303919.0790991176</v>
@@ -669,12 +699,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>2011</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>5.30940970038191E-06</v>
@@ -686,7 +716,7 @@
         <v>0.1157766407250445</v>
       </c>
       <c r="F9">
-        <v>0.0006353510216545073</v>
+        <v>0.000635351021654507</v>
       </c>
       <c r="G9">
         <v>-292010.6496671494</v>
@@ -699,6 +729,194 @@
       </c>
       <c r="J9">
         <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>2001</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>2.517674012013246E-05</v>
+      </c>
+      <c r="D10">
+        <v>0.1046345809559471</v>
+      </c>
+      <c r="E10">
+        <v>0.1049280938976282</v>
+      </c>
+      <c r="F10">
+        <v>0.0008075075782578954</v>
+      </c>
+      <c r="G10">
+        <v>-262512.1726523354</v>
+      </c>
+      <c r="H10">
+        <v>91</v>
+      </c>
+      <c r="I10">
+        <v>3.5</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>67.30936593922004</v>
+      </c>
+      <c r="L10">
+        <v>6.220060058577264E-05</v>
+      </c>
+      <c r="M10">
+        <v>0.09178400080952118</v>
+      </c>
+      <c r="N10">
+        <v>4.562153030716687E-05</v>
+      </c>
+      <c r="O10">
+        <v>-262559.2480401649</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>2000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>3.31728821447978E-05</v>
+      </c>
+      <c r="D11">
+        <v>0.101639519980862</v>
+      </c>
+      <c r="E11">
+        <v>0.1021566248126435</v>
+      </c>
+      <c r="F11">
+        <v>4.07040112655535E-05</v>
+      </c>
+      <c r="G11">
+        <v>-257978.9708626223</v>
+      </c>
+      <c r="H11">
+        <v>91</v>
+      </c>
+      <c r="I11">
+        <v>3.5</v>
+      </c>
+      <c r="J11">
+        <v>19</v>
+      </c>
+      <c r="K11">
+        <v>51.75049315265952</v>
+      </c>
+      <c r="L11">
+        <v>7.266963173854489E-05</v>
+      </c>
+      <c r="M11">
+        <v>0.09011685100687</v>
+      </c>
+      <c r="N11">
+        <v>4.474406284498513E-05</v>
+      </c>
+      <c r="O11">
+        <v>-258024.9229825129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>1999</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>3.95888723125534E-05</v>
+      </c>
+      <c r="D12">
+        <v>0.09971359389147623</v>
+      </c>
+      <c r="E12">
+        <v>0.09902982665300598</v>
+      </c>
+      <c r="F12">
+        <v>7.067126783635858E-05</v>
+      </c>
+      <c r="G12">
+        <v>-253197.9276212314</v>
+      </c>
+      <c r="H12">
+        <v>91</v>
+      </c>
+      <c r="I12">
+        <v>9.5</v>
+      </c>
+      <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <v>53.81363781515803</v>
+      </c>
+      <c r="L12">
+        <v>8.463596758454653E-05</v>
+      </c>
+      <c r="M12">
+        <v>0.08849082416062011</v>
+      </c>
+      <c r="N12">
+        <v>4.377129296688217E-05</v>
+      </c>
+      <c r="O12">
+        <v>-253243.0165890096</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <v>1979</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>2.272015323757744E-05</v>
+      </c>
+      <c r="D13">
+        <v>0.1129278457442329</v>
+      </c>
+      <c r="E13">
+        <v>0.1864622291172649</v>
+      </c>
+      <c r="F13">
+        <v>0.01604317868486232</v>
+      </c>
+      <c r="G13">
+        <v>-171674.1720976254</v>
+      </c>
+      <c r="H13">
+        <v>91</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>75.12864982255755</v>
+      </c>
+      <c r="L13">
+        <v>0.0003666754268486399</v>
+      </c>
+      <c r="M13">
+        <v>0.0756749746866275</v>
+      </c>
+      <c r="N13">
+        <v>1E-06</v>
+      </c>
+      <c r="O13">
+        <v>-171702.7773065522</v>
       </c>
     </row>
   </sheetData>

--- a/가중치 측정 결과.xlsx
+++ b/가중치 측정 결과.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>year</t>
   </si>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -919,6 +919,100 @@
         <v>-171702.7773065522</v>
       </c>
     </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <v>1979</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>7.616600383945308E-06</v>
+      </c>
+      <c r="D14">
+        <v>0.1178804069288247</v>
+      </c>
+      <c r="E14">
+        <v>0.1647640374792829</v>
+      </c>
+      <c r="F14">
+        <v>0.004344270656456407</v>
+      </c>
+      <c r="G14">
+        <v>-252833.1879456068</v>
+      </c>
+      <c r="H14">
+        <v>92</v>
+      </c>
+      <c r="I14">
+        <v>2.5</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>75.87441907710078</v>
+      </c>
+      <c r="L14">
+        <v>4.480681645384582E-05</v>
+      </c>
+      <c r="M14">
+        <v>0.09443297749923142</v>
+      </c>
+      <c r="N14">
+        <v>4.690232045385536E-05</v>
+      </c>
+      <c r="O14">
+        <v>-252899.0092832827</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
+        <v>1973</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>5.120295335428536E-06</v>
+      </c>
+      <c r="D15">
+        <v>0.1235224041199963</v>
+      </c>
+      <c r="E15">
+        <v>0.1752090093660599</v>
+      </c>
+      <c r="F15">
+        <v>0.005759460795906019</v>
+      </c>
+      <c r="G15">
+        <v>-235495.234278943</v>
+      </c>
+      <c r="H15">
+        <v>95</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <v>14</v>
+      </c>
+      <c r="K15">
+        <v>76.77226752502388</v>
+      </c>
+      <c r="L15">
+        <v>3.969742299887385E-05</v>
+      </c>
+      <c r="M15">
+        <v>0.0967051852416124</v>
+      </c>
+      <c r="N15">
+        <v>4.811002500665728E-05</v>
+      </c>
+      <c r="O15">
+        <v>-235566.7978089017</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/가중치 측정 결과.xlsx
+++ b/가중치 측정 결과.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>year</t>
   </si>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1013,6 +1013,53 @@
         <v>-235566.7978089017</v>
       </c>
     </row>
+    <row r="16" spans="1:15">
+      <c r="A16">
+        <v>1990</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>7.008020952509718E-06</v>
+      </c>
+      <c r="D16">
+        <v>0.1178218684482674</v>
+      </c>
+      <c r="E16">
+        <v>0.1649360655476288</v>
+      </c>
+      <c r="F16">
+        <v>0.0001398811698938886</v>
+      </c>
+      <c r="G16">
+        <v>-289513.3503736929</v>
+      </c>
+      <c r="H16">
+        <v>92</v>
+      </c>
+      <c r="I16">
+        <v>6.5</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>61.70431773422243</v>
+      </c>
+      <c r="L16">
+        <v>2.403961173619974E-05</v>
+      </c>
+      <c r="M16">
+        <v>0.100429873152296</v>
+      </c>
+      <c r="N16">
+        <v>4.986331839343625E-05</v>
+      </c>
+      <c r="O16">
+        <v>-289651.1016844942</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/가중치 측정 결과.xlsx
+++ b/가중치 측정 결과.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
   <si>
     <t>year</t>
   </si>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,7 +483,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>5.104194442E-06</v>
+        <v>5.104194441999999E-06</v>
       </c>
       <c r="D2">
         <v>0.118086883032977</v>
@@ -1058,6 +1058,429 @@
       </c>
       <c r="O16">
         <v>-289651.1016844942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17">
+        <v>2002</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>1.536197612093666E-05</v>
+      </c>
+      <c r="D17">
+        <v>0.1105405060069439</v>
+      </c>
+      <c r="E17">
+        <v>0.1222607779796246</v>
+      </c>
+      <c r="F17">
+        <v>0.002053496634571141</v>
+      </c>
+      <c r="G17">
+        <v>-265883.1109814458</v>
+      </c>
+      <c r="H17">
+        <v>90</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>14</v>
+      </c>
+      <c r="K17">
+        <v>72.06491386007087</v>
+      </c>
+      <c r="L17">
+        <v>4.92950381214641E-05</v>
+      </c>
+      <c r="M17">
+        <v>0.09449349060242111</v>
+      </c>
+      <c r="N17">
+        <v>4.69680676226996E-05</v>
+      </c>
+      <c r="O17">
+        <v>-265931.2927157023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18">
+        <v>2003</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>1.751524585283493E-05</v>
+      </c>
+      <c r="D18">
+        <v>0.1080634152496853</v>
+      </c>
+      <c r="E18">
+        <v>0.1045864894671084</v>
+      </c>
+      <c r="F18">
+        <v>0.001855512833290988</v>
+      </c>
+      <c r="G18">
+        <v>-269678.9934950219</v>
+      </c>
+      <c r="H18">
+        <v>92</v>
+      </c>
+      <c r="I18">
+        <v>7.5</v>
+      </c>
+      <c r="J18">
+        <v>14</v>
+      </c>
+      <c r="K18">
+        <v>72.62374009084763</v>
+      </c>
+      <c r="L18">
+        <v>4.725902647962732E-05</v>
+      </c>
+      <c r="M18">
+        <v>0.09444236601486636</v>
+      </c>
+      <c r="N18">
+        <v>4.697510875960143E-05</v>
+      </c>
+      <c r="O18">
+        <v>-269716.5778321281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19">
+        <v>2004</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>1.568614589000027E-05</v>
+      </c>
+      <c r="D19">
+        <v>0.1092734253373342</v>
+      </c>
+      <c r="E19">
+        <v>0.119851461726826</v>
+      </c>
+      <c r="F19">
+        <v>0.001842477158701863</v>
+      </c>
+      <c r="G19">
+        <v>-273526.929003194</v>
+      </c>
+      <c r="H19">
+        <v>85</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <v>15</v>
+      </c>
+      <c r="K19">
+        <v>72.23643652895545</v>
+      </c>
+      <c r="L19">
+        <v>4.764353687972333E-05</v>
+      </c>
+      <c r="M19">
+        <v>0.09399670778678385</v>
+      </c>
+      <c r="N19">
+        <v>4.669945360689021E-05</v>
+      </c>
+      <c r="O19">
+        <v>-273570.7627646616</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20">
+        <v>2005</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>1.150092163720713E-05</v>
+      </c>
+      <c r="D20">
+        <v>0.1124980817291786</v>
+      </c>
+      <c r="E20">
+        <v>0.1163749022560707</v>
+      </c>
+      <c r="F20">
+        <v>0.002702699599798353</v>
+      </c>
+      <c r="G20">
+        <v>-278058.1549576691</v>
+      </c>
+      <c r="H20">
+        <v>94</v>
+      </c>
+      <c r="I20">
+        <v>3.5</v>
+      </c>
+      <c r="J20">
+        <v>14</v>
+      </c>
+      <c r="K20">
+        <v>74.93315880006607</v>
+      </c>
+      <c r="L20">
+        <v>3.869254572311173E-05</v>
+      </c>
+      <c r="M20">
+        <v>0.0962653578210322</v>
+      </c>
+      <c r="N20">
+        <v>4.786548770594509E-05</v>
+      </c>
+      <c r="O20">
+        <v>-278099.2921620376</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21">
+        <v>2006</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>9.741873263971376E-06</v>
+      </c>
+      <c r="D21">
+        <v>0.1143724615882984</v>
+      </c>
+      <c r="E21">
+        <v>0.1232205639032056</v>
+      </c>
+      <c r="F21">
+        <v>0.002083261215753949</v>
+      </c>
+      <c r="G21">
+        <v>-282219.0460544718</v>
+      </c>
+      <c r="H21">
+        <v>88</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>16</v>
+      </c>
+      <c r="K21">
+        <v>73.80873170378307</v>
+      </c>
+      <c r="L21">
+        <v>3.257595273050469E-05</v>
+      </c>
+      <c r="M21">
+        <v>0.09808410055649404</v>
+      </c>
+      <c r="N21">
+        <v>4.834644047527986E-05</v>
+      </c>
+      <c r="O21">
+        <v>-282276.0549799732</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22">
+        <v>2007</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>9.316827779113799E-06</v>
+      </c>
+      <c r="D22">
+        <v>0.1147885641783888</v>
+      </c>
+      <c r="E22">
+        <v>0.1299848605126606</v>
+      </c>
+      <c r="F22">
+        <v>0.001068991366037809</v>
+      </c>
+      <c r="G22">
+        <v>-285173.0153104335</v>
+      </c>
+      <c r="H22">
+        <v>90</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>17</v>
+      </c>
+      <c r="K22">
+        <v>70.73880918105478</v>
+      </c>
+      <c r="L22">
+        <v>2.884408722711809E-05</v>
+      </c>
+      <c r="M22">
+        <v>0.09919096755582024</v>
+      </c>
+      <c r="N22">
+        <v>4.92250126619186E-05</v>
+      </c>
+      <c r="O22">
+        <v>-285243.4062246192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23">
+        <v>2008</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>6.954111651613886E-06</v>
+      </c>
+      <c r="D23">
+        <v>0.1178218162949193</v>
+      </c>
+      <c r="E23">
+        <v>0.1367202210374737</v>
+      </c>
+      <c r="F23">
+        <v>0.0019690399607738</v>
+      </c>
+      <c r="G23">
+        <v>-287347.7502717393</v>
+      </c>
+      <c r="H23">
+        <v>94</v>
+      </c>
+      <c r="I23">
+        <v>5.5</v>
+      </c>
+      <c r="J23">
+        <v>19</v>
+      </c>
+      <c r="K23">
+        <v>73.95502001174482</v>
+      </c>
+      <c r="L23">
+        <v>2.473537269882217E-05</v>
+      </c>
+      <c r="M23">
+        <v>0.1007259457193298</v>
+      </c>
+      <c r="N23">
+        <v>5.012364754933079E-05</v>
+      </c>
+      <c r="O23">
+        <v>-287419.0953865966</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24">
+        <v>2009</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>6.495022740228996E-06</v>
+      </c>
+      <c r="D24">
+        <v>0.118181774968342</v>
+      </c>
+      <c r="E24">
+        <v>0.1466081748672275</v>
+      </c>
+      <c r="F24">
+        <v>0.001365154002834441</v>
+      </c>
+      <c r="G24">
+        <v>-289469.5573279877</v>
+      </c>
+      <c r="H24">
+        <v>93</v>
+      </c>
+      <c r="I24">
+        <v>4.5</v>
+      </c>
+      <c r="J24">
+        <v>18</v>
+      </c>
+      <c r="K24">
+        <v>72.44012229616729</v>
+      </c>
+      <c r="L24">
+        <v>2.284509917510738E-05</v>
+      </c>
+      <c r="M24">
+        <v>0.1009903935545123</v>
+      </c>
+      <c r="N24">
+        <v>5.020899868673943E-05</v>
+      </c>
+      <c r="O24">
+        <v>-289551.5325770511</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25">
+        <v>2010</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>8.191621013893308E-06</v>
+      </c>
+      <c r="D25">
+        <v>0.115222706055523</v>
+      </c>
+      <c r="E25">
+        <v>0.1246229801268115</v>
+      </c>
+      <c r="F25">
+        <v>0.0001306733376874557</v>
+      </c>
+      <c r="G25">
+        <v>-290218.7045941562</v>
+      </c>
+      <c r="H25">
+        <v>94</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <v>62.55637567890622</v>
+      </c>
+      <c r="L25">
+        <v>1.99289729708935E-05</v>
+      </c>
+      <c r="M25">
+        <v>0.1026162017051257</v>
+      </c>
+      <c r="N25">
+        <v>5.110576765627523E-05</v>
+      </c>
+      <c r="O25">
+        <v>-290315.446949509</v>
       </c>
     </row>
   </sheetData>

--- a/가중치 측정 결과.xlsx
+++ b/가중치 측정 결과.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
   <si>
     <t>year</t>
   </si>
@@ -61,10 +61,10 @@
     <t>logL_gm</t>
   </si>
   <si>
+    <t>여자</t>
+  </si>
+  <si>
     <t>남자</t>
-  </si>
-  <si>
-    <t>여자</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,1010 +477,1087 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2">
-        <v>2016</v>
+        <v>1973</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2">
-        <v>5.104194441999999E-06</v>
+        <v>5.120295335428536E-06</v>
       </c>
       <c r="D2">
-        <v>0.118086883032977</v>
+        <v>0.1235224041199963</v>
       </c>
       <c r="E2">
-        <v>0.09255620684794701</v>
+        <v>0.1752090093660599</v>
       </c>
       <c r="F2">
-        <v>1.5965163748E-05</v>
+        <v>0.005759460795906019</v>
       </c>
       <c r="G2">
-        <v>-302708.2352948928</v>
+        <v>-235495.234278943</v>
       </c>
       <c r="H2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J2">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="K2">
+        <v>76.77226752502388</v>
+      </c>
+      <c r="L2">
+        <v>3.969742299887385E-05</v>
+      </c>
+      <c r="M2">
+        <v>0.0967051852416124</v>
+      </c>
+      <c r="N2">
+        <v>4.811002500665728E-05</v>
+      </c>
+      <c r="O2">
+        <v>-235566.7978089017</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3">
-        <v>2015</v>
+        <v>1979</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>5.416987927538608E-06</v>
+        <v>2.272015323757744E-05</v>
       </c>
       <c r="D3">
-        <v>0.1178911152427146</v>
+        <v>0.1129278457442329</v>
       </c>
       <c r="E3">
-        <v>0.1059514233496837</v>
+        <v>0.1864622291172649</v>
       </c>
       <c r="F3">
-        <v>8.57627324488755E-05</v>
+        <v>0.01604317868486232</v>
       </c>
       <c r="G3">
-        <v>-301128.3737981756</v>
+        <v>-171674.1720976254</v>
       </c>
       <c r="H3">
         <v>91</v>
       </c>
       <c r="I3">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>75.12864982255755</v>
+      </c>
+      <c r="L3">
+        <v>0.0003666754268486399</v>
+      </c>
+      <c r="M3">
+        <v>0.0756749746866275</v>
+      </c>
+      <c r="N3">
+        <v>1E-06</v>
+      </c>
+      <c r="O3">
+        <v>-171702.7773065522</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4">
-        <v>2014</v>
+        <v>1979</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4">
-        <v>5.144357290432161E-06</v>
+        <v>7.616600383945308E-06</v>
       </c>
       <c r="D4">
-        <v>0.1190171723928043</v>
+        <v>0.1178804069288247</v>
       </c>
       <c r="E4">
-        <v>0.1112971530906087</v>
+        <v>0.1647640374792829</v>
       </c>
       <c r="F4">
-        <v>8.223035164918457E-05</v>
+        <v>0.004344270656456407</v>
       </c>
       <c r="G4">
-        <v>-298997.4400936868</v>
+        <v>-252833.1879456068</v>
       </c>
       <c r="H4">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I4">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>75.87441907710078</v>
+      </c>
+      <c r="L4">
+        <v>4.480681645384582E-05</v>
+      </c>
+      <c r="M4">
+        <v>0.09443297749923142</v>
+      </c>
+      <c r="N4">
+        <v>4.690232045385536E-05</v>
+      </c>
+      <c r="O4">
+        <v>-252899.0092832827</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5">
-        <v>2013</v>
+        <v>1990</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5">
-        <v>5.297292174670607E-06</v>
+        <v>7.008020952509718E-06</v>
       </c>
       <c r="D5">
-        <v>0.1193322598572867</v>
+        <v>0.1178218684482674</v>
       </c>
       <c r="E5">
-        <v>0.1275275363243624</v>
+        <v>0.1649360655476288</v>
       </c>
       <c r="F5">
-        <v>7.606088498501509E-05</v>
+        <v>0.0001398811698938886</v>
       </c>
       <c r="G5">
-        <v>-296825.2924006893</v>
+        <v>-289513.3503736929</v>
       </c>
       <c r="H5">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I5">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="J5">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>61.70431773422243</v>
+      </c>
+      <c r="L5">
+        <v>2.403961173619974E-05</v>
+      </c>
+      <c r="M5">
+        <v>0.100429873152296</v>
+      </c>
+      <c r="N5">
+        <v>4.986331839343625E-05</v>
+      </c>
+      <c r="O5">
+        <v>-289651.1016844942</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6">
-        <v>5.116918946508728E-06</v>
+        <v>3.95888723125534E-05</v>
       </c>
       <c r="D6">
-        <v>0.1181961206337263</v>
+        <v>0.09971359389147623</v>
       </c>
       <c r="E6">
-        <v>0.07451705540983249</v>
+        <v>0.09902982665300598</v>
       </c>
       <c r="F6">
-        <v>2.595746046163763E-05</v>
+        <v>7.067126783635858E-05</v>
       </c>
       <c r="G6">
-        <v>-311711.9445455807</v>
+        <v>-253197.9276212314</v>
       </c>
       <c r="H6">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I6">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>53.81363781515803</v>
+      </c>
+      <c r="L6">
+        <v>8.463596758454653E-05</v>
+      </c>
+      <c r="M6">
+        <v>0.08849082416062011</v>
+      </c>
+      <c r="N6">
+        <v>4.377129296688217E-05</v>
+      </c>
+      <c r="O6">
+        <v>-253243.0165890096</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7">
-        <v>2017</v>
+        <v>2000</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>5.122465634617868E-06</v>
+        <v>3.31728821447978E-05</v>
       </c>
       <c r="D7">
-        <v>0.1177091739177376</v>
+        <v>0.101639519980862</v>
       </c>
       <c r="E7">
-        <v>0.0701836921832566</v>
+        <v>0.1021566248126435</v>
       </c>
       <c r="F7">
-        <v>1.75186752198291E-05</v>
+        <v>4.07040112655535E-05</v>
       </c>
       <c r="G7">
-        <v>-303816.6210931752</v>
+        <v>-257978.9708626223</v>
       </c>
       <c r="H7">
         <v>91</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="K7">
+        <v>51.75049315265952</v>
+      </c>
+      <c r="L7">
+        <v>7.266963173854489E-05</v>
+      </c>
+      <c r="M7">
+        <v>0.09011685100687</v>
+      </c>
+      <c r="N7">
+        <v>4.474406284498513E-05</v>
+      </c>
+      <c r="O7">
+        <v>-258024.9229825129</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8">
-        <v>2018</v>
+        <v>2001</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8">
-        <v>5.103000380851934E-06</v>
+        <v>5.116918946508728E-06</v>
       </c>
       <c r="D8">
-        <v>0.1175886036911621</v>
+        <v>0.1181961206337263</v>
       </c>
       <c r="E8">
-        <v>0.07152682549784645</v>
+        <v>0.07451705540983249</v>
       </c>
       <c r="F8">
-        <v>1.59734308919947E-05</v>
+        <v>2.595746046163763E-05</v>
       </c>
       <c r="G8">
-        <v>-303919.0790991176</v>
+        <v>-311711.9445455807</v>
       </c>
       <c r="H8">
         <v>93</v>
       </c>
       <c r="I8">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="J8">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>5.30940970038191E-06</v>
+        <v>2.517674012013246E-05</v>
       </c>
       <c r="D9">
-        <v>0.120060277830105</v>
+        <v>0.1046345809559471</v>
       </c>
       <c r="E9">
-        <v>0.1157766407250445</v>
+        <v>0.1049280938976282</v>
       </c>
       <c r="F9">
-        <v>0.000635351021654507</v>
+        <v>0.0008075075782578954</v>
       </c>
       <c r="G9">
-        <v>-292010.6496671494</v>
+        <v>-262512.1726523354</v>
       </c>
       <c r="H9">
         <v>91</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="K9">
+        <v>67.30936593922004</v>
+      </c>
+      <c r="L9">
+        <v>6.220060058577264E-05</v>
+      </c>
+      <c r="M9">
+        <v>0.09178400080952118</v>
+      </c>
+      <c r="N9">
+        <v>4.562153030716687E-05</v>
+      </c>
+      <c r="O9">
+        <v>-262559.2480401649</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>2.517674012013246E-05</v>
+        <v>1.536197612093666E-05</v>
       </c>
       <c r="D10">
-        <v>0.1046345809559471</v>
+        <v>0.1105405060069439</v>
       </c>
       <c r="E10">
-        <v>0.1049280938976282</v>
+        <v>0.1222607779796246</v>
       </c>
       <c r="F10">
-        <v>0.0008075075782578954</v>
+        <v>0.002053496634571141</v>
       </c>
       <c r="G10">
-        <v>-262512.1726523354</v>
+        <v>-265883.1109814458</v>
       </c>
       <c r="H10">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I10">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="J10">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K10">
-        <v>67.30936593922004</v>
+        <v>72.06491386007087</v>
       </c>
       <c r="L10">
-        <v>6.220060058577264E-05</v>
+        <v>4.92950381214641E-05</v>
       </c>
       <c r="M10">
-        <v>0.09178400080952118</v>
+        <v>0.09449349060242111</v>
       </c>
       <c r="N10">
-        <v>4.562153030716687E-05</v>
+        <v>4.69680676226996E-05</v>
       </c>
       <c r="O10">
-        <v>-262559.2480401649</v>
+        <v>-265931.2927157023</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>3.31728821447978E-05</v>
+        <v>1.751524585283493E-05</v>
       </c>
       <c r="D11">
-        <v>0.101639519980862</v>
+        <v>0.1080634152496853</v>
       </c>
       <c r="E11">
-        <v>0.1021566248126435</v>
+        <v>0.1045864894671084</v>
       </c>
       <c r="F11">
-        <v>4.07040112655535E-05</v>
+        <v>0.001855512833290988</v>
       </c>
       <c r="G11">
-        <v>-257978.9708626223</v>
+        <v>-269678.9934950219</v>
       </c>
       <c r="H11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I11">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="J11">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K11">
-        <v>51.75049315265952</v>
+        <v>72.62374009084763</v>
       </c>
       <c r="L11">
-        <v>7.266963173854489E-05</v>
+        <v>4.725902647962732E-05</v>
       </c>
       <c r="M11">
-        <v>0.09011685100687</v>
+        <v>0.09444236601486636</v>
       </c>
       <c r="N11">
-        <v>4.474406284498513E-05</v>
+        <v>4.697510875960143E-05</v>
       </c>
       <c r="O11">
-        <v>-258024.9229825129</v>
+        <v>-269716.5778321281</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>1.568614589000027E-05</v>
+      </c>
+      <c r="D12">
+        <v>0.1092734253373342</v>
+      </c>
+      <c r="E12">
+        <v>0.119851461726826</v>
+      </c>
+      <c r="F12">
+        <v>0.001842477158701863</v>
+      </c>
+      <c r="G12">
+        <v>-273526.929003194</v>
+      </c>
+      <c r="H12">
+        <v>85</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
         <v>15</v>
       </c>
-      <c r="C12">
-        <v>3.95888723125534E-05</v>
-      </c>
-      <c r="D12">
-        <v>0.09971359389147623</v>
-      </c>
-      <c r="E12">
-        <v>0.09902982665300598</v>
-      </c>
-      <c r="F12">
-        <v>7.067126783635858E-05</v>
-      </c>
-      <c r="G12">
-        <v>-253197.9276212314</v>
-      </c>
-      <c r="H12">
-        <v>91</v>
-      </c>
-      <c r="I12">
-        <v>9.5</v>
-      </c>
-      <c r="J12">
-        <v>7</v>
-      </c>
       <c r="K12">
-        <v>53.81363781515803</v>
+        <v>72.23643652895545</v>
       </c>
       <c r="L12">
-        <v>8.463596758454653E-05</v>
+        <v>4.764353687972333E-05</v>
       </c>
       <c r="M12">
-        <v>0.08849082416062011</v>
+        <v>0.09399670778678385</v>
       </c>
       <c r="N12">
-        <v>4.377129296688217E-05</v>
+        <v>4.669945360689021E-05</v>
       </c>
       <c r="O12">
-        <v>-253243.0165890096</v>
+        <v>-273570.7627646616</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13">
-        <v>1979</v>
+        <v>2005</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>2.272015323757744E-05</v>
+        <v>1.150092163720713E-05</v>
       </c>
       <c r="D13">
-        <v>0.1129278457442329</v>
+        <v>0.1124980817291786</v>
       </c>
       <c r="E13">
-        <v>0.1864622291172649</v>
+        <v>0.1163749022560707</v>
       </c>
       <c r="F13">
-        <v>0.01604317868486232</v>
+        <v>0.002702699599798353</v>
       </c>
       <c r="G13">
-        <v>-171674.1720976254</v>
+        <v>-278058.1549576691</v>
       </c>
       <c r="H13">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K13">
-        <v>75.12864982255755</v>
+        <v>74.93315880006607</v>
       </c>
       <c r="L13">
-        <v>0.0003666754268486399</v>
+        <v>3.869254572311173E-05</v>
       </c>
       <c r="M13">
-        <v>0.0756749746866275</v>
+        <v>0.0962653578210322</v>
       </c>
       <c r="N13">
-        <v>1E-06</v>
+        <v>4.786548770594509E-05</v>
       </c>
       <c r="O13">
-        <v>-171702.7773065522</v>
+        <v>-278099.2921620376</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14">
-        <v>1979</v>
+        <v>2006</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14">
-        <v>7.616600383945308E-06</v>
+        <v>9.741873263971376E-06</v>
       </c>
       <c r="D14">
-        <v>0.1178804069288247</v>
+        <v>0.1143724615882984</v>
       </c>
       <c r="E14">
-        <v>0.1647640374792829</v>
+        <v>0.1232205639032056</v>
       </c>
       <c r="F14">
-        <v>0.004344270656456407</v>
+        <v>0.002083261215753949</v>
       </c>
       <c r="G14">
-        <v>-252833.1879456068</v>
+        <v>-282219.0460544718</v>
       </c>
       <c r="H14">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I14">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="K14">
-        <v>75.87441907710078</v>
+        <v>73.80873170378307</v>
       </c>
       <c r="L14">
-        <v>4.480681645384582E-05</v>
+        <v>3.257595273050469E-05</v>
       </c>
       <c r="M14">
-        <v>0.09443297749923142</v>
+        <v>0.09808410055649404</v>
       </c>
       <c r="N14">
-        <v>4.690232045385536E-05</v>
+        <v>4.834644047527986E-05</v>
       </c>
       <c r="O14">
-        <v>-252899.0092832827</v>
+        <v>-282276.0549799732</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15">
-        <v>1973</v>
+        <v>2007</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15">
-        <v>5.120295335428536E-06</v>
+        <v>9.316827779113799E-06</v>
       </c>
       <c r="D15">
-        <v>0.1235224041199963</v>
+        <v>0.1147885641783888</v>
       </c>
       <c r="E15">
-        <v>0.1752090093660599</v>
+        <v>0.1299848605126606</v>
       </c>
       <c r="F15">
-        <v>0.005759460795906019</v>
+        <v>0.001068991366037809</v>
       </c>
       <c r="G15">
-        <v>-235495.234278943</v>
+        <v>-285173.0153104335</v>
       </c>
       <c r="H15">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J15">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K15">
-        <v>76.77226752502388</v>
+        <v>70.73880918105478</v>
       </c>
       <c r="L15">
-        <v>3.969742299887385E-05</v>
+        <v>2.884408722711809E-05</v>
       </c>
       <c r="M15">
-        <v>0.0967051852416124</v>
+        <v>0.09919096755582024</v>
       </c>
       <c r="N15">
-        <v>4.811002500665728E-05</v>
+        <v>4.92250126619186E-05</v>
       </c>
       <c r="O15">
-        <v>-235566.7978089017</v>
+        <v>-285243.4062246192</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16">
-        <v>1990</v>
+        <v>2008</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16">
-        <v>7.008020952509718E-06</v>
+        <v>6.954111651613886E-06</v>
       </c>
       <c r="D16">
-        <v>0.1178218684482674</v>
+        <v>0.1178218162949193</v>
       </c>
       <c r="E16">
-        <v>0.1649360655476288</v>
+        <v>0.1367202210374737</v>
       </c>
       <c r="F16">
-        <v>0.0001398811698938886</v>
+        <v>0.0019690399607738</v>
       </c>
       <c r="G16">
-        <v>-289513.3503736929</v>
+        <v>-287347.7502717393</v>
       </c>
       <c r="H16">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I16">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="K16">
-        <v>61.70431773422243</v>
+        <v>73.95502001174482</v>
       </c>
       <c r="L16">
-        <v>2.403961173619974E-05</v>
+        <v>2.473537269882217E-05</v>
       </c>
       <c r="M16">
-        <v>0.100429873152296</v>
+        <v>0.1007259457193298</v>
       </c>
       <c r="N16">
-        <v>4.986331839343625E-05</v>
+        <v>5.012364754933079E-05</v>
       </c>
       <c r="O16">
-        <v>-289651.1016844942</v>
+        <v>-287419.0953865966</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>1.536197612093666E-05</v>
+        <v>6.495022740228996E-06</v>
       </c>
       <c r="D17">
-        <v>0.1105405060069439</v>
+        <v>0.118181774968342</v>
       </c>
       <c r="E17">
-        <v>0.1222607779796246</v>
+        <v>0.1466081748672275</v>
       </c>
       <c r="F17">
-        <v>0.002053496634571141</v>
+        <v>0.001365154002834441</v>
       </c>
       <c r="G17">
-        <v>-265883.1109814458</v>
+        <v>-289469.5573279877</v>
       </c>
       <c r="H17">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J17">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K17">
-        <v>72.06491386007087</v>
+        <v>72.44012229616729</v>
       </c>
       <c r="L17">
-        <v>4.92950381214641E-05</v>
+        <v>2.284509917510738E-05</v>
       </c>
       <c r="M17">
-        <v>0.09449349060242111</v>
+        <v>0.1009903935545123</v>
       </c>
       <c r="N17">
-        <v>4.69680676226996E-05</v>
+        <v>5.020899868673943E-05</v>
       </c>
       <c r="O17">
-        <v>-265931.2927157023</v>
+        <v>-289551.5325770511</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>1.751524585283493E-05</v>
+        <v>7.390218955403635E-06</v>
       </c>
       <c r="D18">
-        <v>0.1080634152496853</v>
+        <v>0.1165975265952982</v>
       </c>
       <c r="E18">
-        <v>0.1045864894671084</v>
+        <v>0.1327648039590446</v>
       </c>
       <c r="F18">
-        <v>0.001855512833290988</v>
+        <v>0.0001729471558708645</v>
       </c>
       <c r="G18">
-        <v>-269678.9934950219</v>
+        <v>-290217.6540125718</v>
       </c>
       <c r="H18">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I18">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="J18">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K18">
-        <v>72.62374009084763</v>
+        <v>63.69291659875208</v>
       </c>
       <c r="L18">
-        <v>4.725902647962732E-05</v>
+        <v>1.993242445351399E-05</v>
       </c>
       <c r="M18">
-        <v>0.09444236601486636</v>
+        <v>0.1026138655243944</v>
       </c>
       <c r="N18">
-        <v>4.697510875960143E-05</v>
+        <v>5.110501736151278E-05</v>
       </c>
       <c r="O18">
-        <v>-269716.5778321281</v>
+        <v>-290315.4473324648</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19">
-        <v>1.568614589000027E-05</v>
+        <v>5.30940970038191E-06</v>
       </c>
       <c r="D19">
-        <v>0.1092734253373342</v>
+        <v>0.120060277830105</v>
       </c>
       <c r="E19">
-        <v>0.119851461726826</v>
+        <v>0.1157766407250445</v>
       </c>
       <c r="F19">
-        <v>0.001842477158701863</v>
+        <v>0.000635351021654507</v>
       </c>
       <c r="G19">
-        <v>-273526.929003194</v>
+        <v>-292010.6496671494</v>
       </c>
       <c r="H19">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
         <v>6</v>
-      </c>
-      <c r="J19">
-        <v>15</v>
-      </c>
-      <c r="K19">
-        <v>72.23643652895545</v>
-      </c>
-      <c r="L19">
-        <v>4.764353687972333E-05</v>
-      </c>
-      <c r="M19">
-        <v>0.09399670778678385</v>
-      </c>
-      <c r="N19">
-        <v>4.669945360689021E-05</v>
-      </c>
-      <c r="O19">
-        <v>-273570.7627646616</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20">
-        <v>1.150092163720713E-05</v>
+        <v>5.150697796837229E-06</v>
       </c>
       <c r="D20">
-        <v>0.1124980817291786</v>
+        <v>0.120558745163511</v>
       </c>
       <c r="E20">
-        <v>0.1163749022560707</v>
+        <v>0.1319928689410184</v>
       </c>
       <c r="F20">
-        <v>0.002702699599798353</v>
+        <v>8.150482449745949E-05</v>
       </c>
       <c r="G20">
-        <v>-278058.1549576691</v>
+        <v>-294058.5176452107</v>
       </c>
       <c r="H20">
         <v>94</v>
       </c>
       <c r="I20">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K20">
-        <v>74.93315880006607</v>
+        <v>61.61715621523862</v>
       </c>
       <c r="L20">
-        <v>3.869254572311173E-05</v>
+        <v>1.346993264285558E-05</v>
       </c>
       <c r="M20">
-        <v>0.0962653578210322</v>
+        <v>0.1070420163431406</v>
       </c>
       <c r="N20">
-        <v>4.786548770594509E-05</v>
+        <v>5.325683394376815E-05</v>
       </c>
       <c r="O20">
-        <v>-278099.2921620376</v>
+        <v>-294167.7057260996</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21">
-        <v>2006</v>
+        <v>2015</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21">
-        <v>9.741873263971376E-06</v>
+        <v>5.416987927538608E-06</v>
       </c>
       <c r="D21">
-        <v>0.1143724615882984</v>
+        <v>0.1178911152427146</v>
       </c>
       <c r="E21">
-        <v>0.1232205639032056</v>
+        <v>0.1059514233496837</v>
       </c>
       <c r="F21">
-        <v>0.002083261215753949</v>
+        <v>8.57627324488755E-05</v>
       </c>
       <c r="G21">
-        <v>-282219.0460544718</v>
+        <v>-301128.3737981756</v>
       </c>
       <c r="H21">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="J21">
-        <v>16</v>
-      </c>
-      <c r="K21">
-        <v>73.80873170378307</v>
-      </c>
-      <c r="L21">
-        <v>3.257595273050469E-05</v>
-      </c>
-      <c r="M21">
-        <v>0.09808410055649404</v>
-      </c>
-      <c r="N21">
-        <v>4.834644047527986E-05</v>
-      </c>
-      <c r="O21">
-        <v>-282276.0549799732</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22">
-        <v>9.316827779113799E-06</v>
+        <v>5.104194441999999E-06</v>
       </c>
       <c r="D22">
-        <v>0.1147885641783888</v>
+        <v>0.118086883032977</v>
       </c>
       <c r="E22">
-        <v>0.1299848605126606</v>
+        <v>0.09255620684794701</v>
       </c>
       <c r="F22">
-        <v>0.001068991366037809</v>
+        <v>1.5965163748E-05</v>
       </c>
       <c r="G22">
-        <v>-285173.0153104335</v>
+        <v>-302708.2352948928</v>
       </c>
       <c r="H22">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J22">
-        <v>17</v>
-      </c>
-      <c r="K22">
-        <v>70.73880918105478</v>
-      </c>
-      <c r="L22">
-        <v>2.884408722711809E-05</v>
-      </c>
-      <c r="M22">
-        <v>0.09919096755582024</v>
-      </c>
-      <c r="N22">
-        <v>4.92250126619186E-05</v>
-      </c>
-      <c r="O22">
-        <v>-285243.4062246192</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23">
-        <v>6.954111651613886E-06</v>
+        <v>5.122465634617868E-06</v>
       </c>
       <c r="D23">
-        <v>0.1178218162949193</v>
+        <v>0.1177091739177376</v>
       </c>
       <c r="E23">
-        <v>0.1367202210374737</v>
+        <v>0.0701836921832566</v>
       </c>
       <c r="F23">
-        <v>0.0019690399607738</v>
+        <v>1.75186752198291E-05</v>
       </c>
       <c r="G23">
-        <v>-287347.7502717393</v>
+        <v>-303816.6210931752</v>
       </c>
       <c r="H23">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I23">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>19</v>
-      </c>
-      <c r="K23">
-        <v>73.95502001174482</v>
-      </c>
-      <c r="L23">
-        <v>2.473537269882217E-05</v>
-      </c>
-      <c r="M23">
-        <v>0.1007259457193298</v>
-      </c>
-      <c r="N23">
-        <v>5.012364754933079E-05</v>
-      </c>
-      <c r="O23">
-        <v>-287419.0953865966</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24">
-        <v>2009</v>
+        <v>2018</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C24">
-        <v>6.495022740228996E-06</v>
+        <v>5.103000380851934E-06</v>
       </c>
       <c r="D24">
-        <v>0.118181774968342</v>
+        <v>0.1175886036911621</v>
       </c>
       <c r="E24">
-        <v>0.1466081748672275</v>
+        <v>0.07152682549784645</v>
       </c>
       <c r="F24">
-        <v>0.001365154002834441</v>
+        <v>1.59734308919947E-05</v>
       </c>
       <c r="G24">
-        <v>-289469.5573279877</v>
+        <v>-303919.0790991176</v>
       </c>
       <c r="H24">
         <v>93</v>
       </c>
       <c r="I24">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="J24">
-        <v>18</v>
-      </c>
-      <c r="K24">
-        <v>72.44012229616729</v>
-      </c>
-      <c r="L24">
-        <v>2.284509917510738E-05</v>
-      </c>
-      <c r="M24">
-        <v>0.1009903935545123</v>
-      </c>
-      <c r="N24">
-        <v>5.020899868673943E-05</v>
-      </c>
-      <c r="O24">
-        <v>-289551.5325770511</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C25">
-        <v>8.191621013893308E-06</v>
+        <v>5.169692293417489E-06</v>
       </c>
       <c r="D25">
-        <v>0.115222706055523</v>
+        <v>0.1195322001692696</v>
       </c>
       <c r="E25">
-        <v>0.1246229801268115</v>
+        <v>0.1223315288988443</v>
       </c>
       <c r="F25">
-        <v>0.0001306733376874557</v>
+        <v>4.857667586759262E-05</v>
       </c>
       <c r="G25">
-        <v>-290218.7045941562</v>
+        <v>-296824.8393119976</v>
       </c>
       <c r="H25">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K25">
-        <v>62.55637567890622</v>
+        <v>60.22252987785141</v>
       </c>
       <c r="L25">
-        <v>1.99289729708935E-05</v>
+        <v>1.226935540390126E-05</v>
       </c>
       <c r="M25">
-        <v>0.1026162017051257</v>
+        <v>0.1074331313777304</v>
       </c>
       <c r="N25">
-        <v>5.110576765627523E-05</v>
+        <v>5.353154522710703E-05</v>
       </c>
       <c r="O25">
-        <v>-290315.446949509</v>
+        <v>-296937.1888210972</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26">
+        <v>2014</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>5.106469002771463E-06</v>
+      </c>
+      <c r="D26">
+        <v>0.1191295652166255</v>
+      </c>
+      <c r="E26">
+        <v>0.1100537204669026</v>
+      </c>
+      <c r="F26">
+        <v>7.65882933020795E-05</v>
+      </c>
+      <c r="G26">
+        <v>-298997.4123504945</v>
+      </c>
+      <c r="H26">
+        <v>89</v>
+      </c>
+      <c r="I26">
+        <v>8.5</v>
+      </c>
+      <c r="J26">
+        <v>7</v>
+      </c>
+      <c r="K26">
+        <v>62.87608692580804</v>
+      </c>
+      <c r="L26">
+        <v>1.042230470511729E-05</v>
+      </c>
+      <c r="M26">
+        <v>0.1089982818860229</v>
+      </c>
+      <c r="N26">
+        <v>5.000418204965344E-05</v>
+      </c>
+      <c r="O26">
+        <v>-299110.6710961031</v>
       </c>
     </row>
   </sheetData>

--- a/가중치 측정 결과.xlsx
+++ b/가중치 측정 결과.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\정태우\Desktop\ggm_analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06003AB2-67F2-49D7-B747-414DE352C67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -70,12 +76,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -83,8 +89,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -130,17 +143,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -178,7 +199,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -212,6 +233,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -246,9 +268,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -421,14 +444,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1973</v>
       </c>
@@ -483,19 +506,19 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>5.120295335428536E-06</v>
+        <v>5.1202953354285356E-6</v>
       </c>
       <c r="D2">
-        <v>0.1235224041199963</v>
+        <v>0.12352240411999631</v>
       </c>
       <c r="E2">
         <v>0.1752090093660599</v>
       </c>
       <c r="F2">
-        <v>0.005759460795906019</v>
+        <v>5.7594607959060191E-3</v>
       </c>
       <c r="G2">
-        <v>-235495.234278943</v>
+        <v>-235495.23427894301</v>
       </c>
       <c r="H2">
         <v>95</v>
@@ -507,22 +530,22 @@
         <v>14</v>
       </c>
       <c r="K2">
-        <v>76.77226752502388</v>
+        <v>76.772267525023878</v>
       </c>
       <c r="L2">
-        <v>3.969742299887385E-05</v>
+        <v>3.9697422998873853E-5</v>
       </c>
       <c r="M2">
-        <v>0.0967051852416124</v>
+        <v>9.6705185241612396E-2</v>
       </c>
       <c r="N2">
-        <v>4.811002500665728E-05</v>
+        <v>4.8110025006657279E-5</v>
       </c>
       <c r="O2">
         <v>-235566.7978089017</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1979</v>
       </c>
@@ -530,7 +553,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>2.272015323757744E-05</v>
+        <v>2.2720153237577439E-5</v>
       </c>
       <c r="D3">
         <v>0.1129278457442329</v>
@@ -539,10 +562,10 @@
         <v>0.1864622291172649</v>
       </c>
       <c r="F3">
-        <v>0.01604317868486232</v>
+        <v>1.6043178684862321E-2</v>
       </c>
       <c r="G3">
-        <v>-171674.1720976254</v>
+        <v>-171674.17209762539</v>
       </c>
       <c r="H3">
         <v>91</v>
@@ -554,22 +577,22 @@
         <v>4</v>
       </c>
       <c r="K3">
-        <v>75.12864982255755</v>
+        <v>75.128649822557549</v>
       </c>
       <c r="L3">
-        <v>0.0003666754268486399</v>
+        <v>3.6667542684863988E-4</v>
       </c>
       <c r="M3">
-        <v>0.0756749746866275</v>
+        <v>7.5674974686627497E-2</v>
       </c>
       <c r="N3">
-        <v>1E-06</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="O3">
-        <v>-171702.7773065522</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>-171702.77730655219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1979</v>
       </c>
@@ -577,16 +600,16 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>7.616600383945308E-06</v>
+        <v>7.6166003839453077E-6</v>
       </c>
       <c r="D4">
         <v>0.1178804069288247</v>
       </c>
       <c r="E4">
-        <v>0.1647640374792829</v>
+        <v>0.16476403747928289</v>
       </c>
       <c r="F4">
-        <v>0.004344270656456407</v>
+        <v>4.3442706564564074E-3</v>
       </c>
       <c r="G4">
         <v>-252833.1879456068</v>
@@ -601,22 +624,22 @@
         <v>2</v>
       </c>
       <c r="K4">
-        <v>75.87441907710078</v>
+        <v>75.874419077100782</v>
       </c>
       <c r="L4">
-        <v>4.480681645384582E-05</v>
+        <v>4.480681645384582E-5</v>
       </c>
       <c r="M4">
-        <v>0.09443297749923142</v>
+        <v>9.4432977499231421E-2</v>
       </c>
       <c r="N4">
-        <v>4.690232045385536E-05</v>
+        <v>4.6902320453855359E-5</v>
       </c>
       <c r="O4">
-        <v>-252899.0092832827</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>-252899.00928328271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1990</v>
       </c>
@@ -624,19 +647,19 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>7.008020952509718E-06</v>
+        <v>7.0080209525097176E-6</v>
       </c>
       <c r="D5">
-        <v>0.1178218684482674</v>
+        <v>0.11782186844826741</v>
       </c>
       <c r="E5">
         <v>0.1649360655476288</v>
       </c>
       <c r="F5">
-        <v>0.0001398811698938886</v>
+        <v>1.398811698938886E-4</v>
       </c>
       <c r="G5">
-        <v>-289513.3503736929</v>
+        <v>-289513.35037369293</v>
       </c>
       <c r="H5">
         <v>92</v>
@@ -648,22 +671,22 @@
         <v>4</v>
       </c>
       <c r="K5">
-        <v>61.70431773422243</v>
+        <v>61.704317734222428</v>
       </c>
       <c r="L5">
-        <v>2.403961173619974E-05</v>
+        <v>2.4039611736199739E-5</v>
       </c>
       <c r="M5">
         <v>0.100429873152296</v>
       </c>
       <c r="N5">
-        <v>4.986331839343625E-05</v>
+        <v>4.986331839343625E-5</v>
       </c>
       <c r="O5">
-        <v>-289651.1016844942</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>-289651.10168449418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1999</v>
       </c>
@@ -671,19 +694,19 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>3.95888723125534E-05</v>
+        <v>3.9588872312553402E-5</v>
       </c>
       <c r="D6">
-        <v>0.09971359389147623</v>
+        <v>9.9713593891476229E-2</v>
       </c>
       <c r="E6">
-        <v>0.09902982665300598</v>
+        <v>9.9029826653005984E-2</v>
       </c>
       <c r="F6">
-        <v>7.067126783635858E-05</v>
+        <v>7.0671267836358576E-5</v>
       </c>
       <c r="G6">
-        <v>-253197.9276212314</v>
+        <v>-253197.92762123141</v>
       </c>
       <c r="H6">
         <v>91</v>
@@ -695,22 +718,22 @@
         <v>7</v>
       </c>
       <c r="K6">
-        <v>53.81363781515803</v>
+        <v>53.813637815158032</v>
       </c>
       <c r="L6">
-        <v>8.463596758454653E-05</v>
+        <v>8.4635967584546535E-5</v>
       </c>
       <c r="M6">
-        <v>0.08849082416062011</v>
+        <v>8.849082416062011E-2</v>
       </c>
       <c r="N6">
-        <v>4.377129296688217E-05</v>
+        <v>4.377129296688217E-5</v>
       </c>
       <c r="O6">
-        <v>-253243.0165890096</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>-253243.01658900961</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -718,7 +741,7 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>3.31728821447978E-05</v>
+        <v>3.3172882144797802E-5</v>
       </c>
       <c r="D7">
         <v>0.101639519980862</v>
@@ -727,10 +750,10 @@
         <v>0.1021566248126435</v>
       </c>
       <c r="F7">
-        <v>4.07040112655535E-05</v>
+        <v>4.0704011265553501E-5</v>
       </c>
       <c r="G7">
-        <v>-257978.9708626223</v>
+        <v>-257978.97086262229</v>
       </c>
       <c r="H7">
         <v>91</v>
@@ -742,22 +765,22 @@
         <v>19</v>
       </c>
       <c r="K7">
-        <v>51.75049315265952</v>
+        <v>51.750493152659523</v>
       </c>
       <c r="L7">
-        <v>7.266963173854489E-05</v>
+        <v>7.2669631738544891E-5</v>
       </c>
       <c r="M7">
-        <v>0.09011685100687</v>
+        <v>9.0116851006870002E-2</v>
       </c>
       <c r="N7">
-        <v>4.474406284498513E-05</v>
+        <v>4.4744062844985127E-5</v>
       </c>
       <c r="O7">
-        <v>-258024.9229825129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>-258024.92298251289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2001</v>
       </c>
@@ -765,19 +788,19 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>5.116918946508728E-06</v>
+        <v>5.116918946508728E-6</v>
       </c>
       <c r="D8">
         <v>0.1181961206337263</v>
       </c>
       <c r="E8">
-        <v>0.07451705540983249</v>
+        <v>7.4517055409832486E-2</v>
       </c>
       <c r="F8">
-        <v>2.595746046163763E-05</v>
+        <v>2.5957460461637629E-5</v>
       </c>
       <c r="G8">
-        <v>-311711.9445455807</v>
+        <v>-311711.94454558071</v>
       </c>
       <c r="H8">
         <v>93</v>
@@ -789,7 +812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2001</v>
       </c>
@@ -797,19 +820,19 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>2.517674012013246E-05</v>
+        <v>2.5176740120132459E-5</v>
       </c>
       <c r="D9">
         <v>0.1046345809559471</v>
       </c>
       <c r="E9">
-        <v>0.1049280938976282</v>
+        <v>0.10492809389762819</v>
       </c>
       <c r="F9">
-        <v>0.0008075075782578954</v>
+        <v>8.075075782578954E-4</v>
       </c>
       <c r="G9">
-        <v>-262512.1726523354</v>
+        <v>-262512.17265233537</v>
       </c>
       <c r="H9">
         <v>91</v>
@@ -821,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="K9">
-        <v>67.30936593922004</v>
+        <v>67.309365939220044</v>
       </c>
       <c r="L9">
-        <v>6.220060058577264E-05</v>
+        <v>6.2200600585772637E-5</v>
       </c>
       <c r="M9">
-        <v>0.09178400080952118</v>
+        <v>9.1784000809521177E-2</v>
       </c>
       <c r="N9">
-        <v>4.562153030716687E-05</v>
+        <v>4.5621530307166868E-5</v>
       </c>
       <c r="O9">
-        <v>-262559.2480401649</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>-262559.24804016488</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -844,7 +867,7 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>1.536197612093666E-05</v>
+        <v>1.5361976120936661E-5</v>
       </c>
       <c r="D10">
         <v>0.1105405060069439</v>
@@ -853,10 +876,10 @@
         <v>0.1222607779796246</v>
       </c>
       <c r="F10">
-        <v>0.002053496634571141</v>
+        <v>2.053496634571141E-3</v>
       </c>
       <c r="G10">
-        <v>-265883.1109814458</v>
+        <v>-265883.11098144582</v>
       </c>
       <c r="H10">
         <v>90</v>
@@ -868,22 +891,22 @@
         <v>14</v>
       </c>
       <c r="K10">
-        <v>72.06491386007087</v>
+        <v>72.064913860070874</v>
       </c>
       <c r="L10">
-        <v>4.92950381214641E-05</v>
+        <v>4.9295038121464103E-5</v>
       </c>
       <c r="M10">
-        <v>0.09449349060242111</v>
+        <v>9.4493490602421112E-2</v>
       </c>
       <c r="N10">
-        <v>4.69680676226996E-05</v>
+        <v>4.6968067622699603E-5</v>
       </c>
       <c r="O10">
-        <v>-265931.2927157023</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>-265931.29271570232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2003</v>
       </c>
@@ -891,7 +914,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>1.751524585283493E-05</v>
+        <v>1.7515245852834931E-5</v>
       </c>
       <c r="D11">
         <v>0.1080634152496853</v>
@@ -900,10 +923,10 @@
         <v>0.1045864894671084</v>
       </c>
       <c r="F11">
-        <v>0.001855512833290988</v>
+        <v>1.855512833290988E-3</v>
       </c>
       <c r="G11">
-        <v>-269678.9934950219</v>
+        <v>-269678.99349502189</v>
       </c>
       <c r="H11">
         <v>92</v>
@@ -915,22 +938,22 @@
         <v>14</v>
       </c>
       <c r="K11">
-        <v>72.62374009084763</v>
+        <v>72.623740090847633</v>
       </c>
       <c r="L11">
-        <v>4.725902647962732E-05</v>
+        <v>4.7259026479627318E-5</v>
       </c>
       <c r="M11">
-        <v>0.09444236601486636</v>
+        <v>9.4442366014866358E-2</v>
       </c>
       <c r="N11">
-        <v>4.697510875960143E-05</v>
+        <v>4.6975108759601433E-5</v>
       </c>
       <c r="O11">
         <v>-269716.5778321281</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2004</v>
       </c>
@@ -938,19 +961,19 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>1.568614589000027E-05</v>
+        <v>1.5686145890000271E-5</v>
       </c>
       <c r="D12">
         <v>0.1092734253373342</v>
       </c>
       <c r="E12">
-        <v>0.119851461726826</v>
+        <v>0.11985146172682599</v>
       </c>
       <c r="F12">
-        <v>0.001842477158701863</v>
+        <v>1.842477158701863E-3</v>
       </c>
       <c r="G12">
-        <v>-273526.929003194</v>
+        <v>-273526.92900319397</v>
       </c>
       <c r="H12">
         <v>85</v>
@@ -962,22 +985,22 @@
         <v>15</v>
       </c>
       <c r="K12">
-        <v>72.23643652895545</v>
+        <v>72.236436528955451</v>
       </c>
       <c r="L12">
-        <v>4.764353687972333E-05</v>
+        <v>4.7643536879723327E-5</v>
       </c>
       <c r="M12">
-        <v>0.09399670778678385</v>
+        <v>9.3996707786783845E-2</v>
       </c>
       <c r="N12">
-        <v>4.669945360689021E-05</v>
+        <v>4.669945360689021E-5</v>
       </c>
       <c r="O12">
-        <v>-273570.7627646616</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>-273570.76276466157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2005</v>
       </c>
@@ -985,19 +1008,19 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>1.150092163720713E-05</v>
+        <v>1.1500921637207131E-5</v>
       </c>
       <c r="D13">
-        <v>0.1124980817291786</v>
+        <v>0.11249808172917861</v>
       </c>
       <c r="E13">
-        <v>0.1163749022560707</v>
+        <v>0.11637490225607069</v>
       </c>
       <c r="F13">
-        <v>0.002702699599798353</v>
+        <v>2.7026995997983532E-3</v>
       </c>
       <c r="G13">
-        <v>-278058.1549576691</v>
+        <v>-278058.15495766909</v>
       </c>
       <c r="H13">
         <v>94</v>
@@ -1009,22 +1032,22 @@
         <v>14</v>
       </c>
       <c r="K13">
-        <v>74.93315880006607</v>
+        <v>74.933158800066067</v>
       </c>
       <c r="L13">
-        <v>3.869254572311173E-05</v>
+        <v>3.8692545723111728E-5</v>
       </c>
       <c r="M13">
-        <v>0.0962653578210322</v>
+        <v>9.6265357821032196E-2</v>
       </c>
       <c r="N13">
-        <v>4.786548770594509E-05</v>
+        <v>4.7865487705945091E-5</v>
       </c>
       <c r="O13">
-        <v>-278099.2921620376</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>-278099.29216203757</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2006</v>
       </c>
@@ -1032,7 +1055,7 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>9.741873263971376E-06</v>
+        <v>9.7418732639713756E-6</v>
       </c>
       <c r="D14">
         <v>0.1143724615882984</v>
@@ -1041,10 +1064,10 @@
         <v>0.1232205639032056</v>
       </c>
       <c r="F14">
-        <v>0.002083261215753949</v>
+        <v>2.0832612157539489E-3</v>
       </c>
       <c r="G14">
-        <v>-282219.0460544718</v>
+        <v>-282219.04605447181</v>
       </c>
       <c r="H14">
         <v>88</v>
@@ -1056,22 +1079,22 @@
         <v>16</v>
       </c>
       <c r="K14">
-        <v>73.80873170378307</v>
+        <v>73.808731703783067</v>
       </c>
       <c r="L14">
-        <v>3.257595273050469E-05</v>
+        <v>3.257595273050469E-5</v>
       </c>
       <c r="M14">
-        <v>0.09808410055649404</v>
+        <v>9.8084100556494039E-2</v>
       </c>
       <c r="N14">
-        <v>4.834644047527986E-05</v>
+        <v>4.8346440475279861E-5</v>
       </c>
       <c r="O14">
-        <v>-282276.0549799732</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>-282276.05497997318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2007</v>
       </c>
@@ -1079,19 +1102,19 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>9.316827779113799E-06</v>
+        <v>9.3168277791137993E-6</v>
       </c>
       <c r="D15">
         <v>0.1147885641783888</v>
       </c>
       <c r="E15">
-        <v>0.1299848605126606</v>
+        <v>0.12998486051266059</v>
       </c>
       <c r="F15">
-        <v>0.001068991366037809</v>
+        <v>1.068991366037809E-3</v>
       </c>
       <c r="G15">
-        <v>-285173.0153104335</v>
+        <v>-285173.01531043352</v>
       </c>
       <c r="H15">
         <v>90</v>
@@ -1103,22 +1126,22 @@
         <v>17</v>
       </c>
       <c r="K15">
-        <v>70.73880918105478</v>
+        <v>70.738809181054776</v>
       </c>
       <c r="L15">
-        <v>2.884408722711809E-05</v>
+        <v>2.884408722711809E-5</v>
       </c>
       <c r="M15">
-        <v>0.09919096755582024</v>
+        <v>9.9190967555820242E-2</v>
       </c>
       <c r="N15">
-        <v>4.92250126619186E-05</v>
+        <v>4.9225012661918603E-5</v>
       </c>
       <c r="O15">
-        <v>-285243.4062246192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>-285243.40622461919</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2008</v>
       </c>
@@ -1126,19 +1149,19 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>6.954111651613886E-06</v>
+        <v>6.9541116516138863E-6</v>
       </c>
       <c r="D16">
-        <v>0.1178218162949193</v>
+        <v>0.11782181629491929</v>
       </c>
       <c r="E16">
-        <v>0.1367202210374737</v>
+        <v>0.13672022103747369</v>
       </c>
       <c r="F16">
-        <v>0.0019690399607738</v>
+        <v>1.9690399607738E-3</v>
       </c>
       <c r="G16">
-        <v>-287347.7502717393</v>
+        <v>-287347.75027173932</v>
       </c>
       <c r="H16">
         <v>94</v>
@@ -1150,22 +1173,22 @@
         <v>19</v>
       </c>
       <c r="K16">
-        <v>73.95502001174482</v>
+        <v>73.955020011744821</v>
       </c>
       <c r="L16">
-        <v>2.473537269882217E-05</v>
+        <v>2.4735372698822169E-5</v>
       </c>
       <c r="M16">
         <v>0.1007259457193298</v>
       </c>
       <c r="N16">
-        <v>5.012364754933079E-05</v>
+        <v>5.0123647549330788E-5</v>
       </c>
       <c r="O16">
-        <v>-287419.0953865966</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>-287419.09538659657</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2009</v>
       </c>
@@ -1173,19 +1196,19 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>6.495022740228996E-06</v>
+        <v>6.4950227402289958E-6</v>
       </c>
       <c r="D17">
-        <v>0.118181774968342</v>
+        <v>0.11818177496834199</v>
       </c>
       <c r="E17">
-        <v>0.1466081748672275</v>
+        <v>0.14660817486722749</v>
       </c>
       <c r="F17">
-        <v>0.001365154002834441</v>
+        <v>1.3651540028344409E-3</v>
       </c>
       <c r="G17">
-        <v>-289469.5573279877</v>
+        <v>-289469.55732798768</v>
       </c>
       <c r="H17">
         <v>93</v>
@@ -1197,22 +1220,22 @@
         <v>18</v>
       </c>
       <c r="K17">
-        <v>72.44012229616729</v>
+        <v>72.440122296167289</v>
       </c>
       <c r="L17">
-        <v>2.284509917510738E-05</v>
+        <v>2.2845099175107378E-5</v>
       </c>
       <c r="M17">
-        <v>0.1009903935545123</v>
+        <v>0.10099039355451229</v>
       </c>
       <c r="N17">
-        <v>5.020899868673943E-05</v>
+        <v>5.0208998686739431E-5</v>
       </c>
       <c r="O17">
-        <v>-289551.5325770511</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>-289551.53257705108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2010</v>
       </c>
@@ -1220,19 +1243,19 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>7.390218955403635E-06</v>
+        <v>7.3902189554036352E-6</v>
       </c>
       <c r="D18">
-        <v>0.1165975265952982</v>
+        <v>0.11659752659529821</v>
       </c>
       <c r="E18">
-        <v>0.1327648039590446</v>
+        <v>0.13276480395904461</v>
       </c>
       <c r="F18">
-        <v>0.0001729471558708645</v>
+        <v>1.7294715587086451E-4</v>
       </c>
       <c r="G18">
-        <v>-290217.6540125718</v>
+        <v>-290217.65401257179</v>
       </c>
       <c r="H18">
         <v>94</v>
@@ -1244,22 +1267,22 @@
         <v>10</v>
       </c>
       <c r="K18">
-        <v>63.69291659875208</v>
+        <v>63.692916598752078</v>
       </c>
       <c r="L18">
-        <v>1.993242445351399E-05</v>
+        <v>1.9932424453513991E-5</v>
       </c>
       <c r="M18">
         <v>0.1026138655243944</v>
       </c>
       <c r="N18">
-        <v>5.110501736151278E-05</v>
+        <v>5.110501736151278E-5</v>
       </c>
       <c r="O18">
         <v>-290315.4473324648</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2011</v>
       </c>
@@ -1267,19 +1290,19 @@
         <v>16</v>
       </c>
       <c r="C19">
-        <v>5.30940970038191E-06</v>
+        <v>5.3094097003819098E-6</v>
       </c>
       <c r="D19">
-        <v>0.120060277830105</v>
+        <v>0.12006027783010501</v>
       </c>
       <c r="E19">
         <v>0.1157766407250445</v>
       </c>
       <c r="F19">
-        <v>0.000635351021654507</v>
+        <v>6.35351021654507E-4</v>
       </c>
       <c r="G19">
-        <v>-292010.6496671494</v>
+        <v>-292010.64966714941</v>
       </c>
       <c r="H19">
         <v>91</v>
@@ -1291,7 +1314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2012</v>
       </c>
@@ -1299,19 +1322,19 @@
         <v>16</v>
       </c>
       <c r="C20">
-        <v>5.150697796837229E-06</v>
+        <v>5.1506977968372291E-6</v>
       </c>
       <c r="D20">
-        <v>0.120558745163511</v>
+        <v>0.12055874516351101</v>
       </c>
       <c r="E20">
-        <v>0.1319928689410184</v>
+        <v>0.13199286894101839</v>
       </c>
       <c r="F20">
-        <v>8.150482449745949E-05</v>
+        <v>8.1504824497459494E-5</v>
       </c>
       <c r="G20">
-        <v>-294058.5176452107</v>
+        <v>-294058.51764521073</v>
       </c>
       <c r="H20">
         <v>94</v>
@@ -1323,244 +1346,248 @@
         <v>9</v>
       </c>
       <c r="K20">
-        <v>61.61715621523862</v>
+        <v>61.617156215238623</v>
       </c>
       <c r="L20">
-        <v>1.346993264285558E-05</v>
+        <v>1.346993264285558E-5</v>
       </c>
       <c r="M20">
         <v>0.1070420163431406</v>
       </c>
       <c r="N20">
-        <v>5.325683394376815E-05</v>
+        <v>5.3256833943768147E-5</v>
       </c>
       <c r="O20">
-        <v>-294167.7057260996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>-294167.70572609961</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
+        <v>2013</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>5.1696922934174887E-6</v>
+      </c>
+      <c r="D21">
+        <v>0.1195322001692696</v>
+      </c>
+      <c r="E21">
+        <v>0.1223315288988443</v>
+      </c>
+      <c r="F21">
+        <v>4.8576675867592622E-5</v>
+      </c>
+      <c r="G21">
+        <v>-296824.83931199758</v>
+      </c>
+      <c r="H21">
+        <v>92</v>
+      </c>
+      <c r="I21">
+        <v>2.5</v>
+      </c>
+      <c r="J21">
+        <v>7</v>
+      </c>
+      <c r="K21">
+        <v>60.222529877851407</v>
+      </c>
+      <c r="L21">
+        <v>1.2269355403901261E-5</v>
+      </c>
+      <c r="M21">
+        <v>0.1074331313777304</v>
+      </c>
+      <c r="N21">
+        <v>5.3531545227107033E-5</v>
+      </c>
+      <c r="O21">
+        <v>-296937.1888210972</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2014</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>5.1064690027714634E-6</v>
+      </c>
+      <c r="D22">
+        <v>0.1191295652166255</v>
+      </c>
+      <c r="E22">
+        <v>0.11005372046690259</v>
+      </c>
+      <c r="F22">
+        <v>7.6588293302079502E-5</v>
+      </c>
+      <c r="G22">
+        <v>-298997.41235049447</v>
+      </c>
+      <c r="H22">
+        <v>89</v>
+      </c>
+      <c r="I22">
+        <v>8.5</v>
+      </c>
+      <c r="J22">
+        <v>7</v>
+      </c>
+      <c r="K22">
+        <v>62.876086925808039</v>
+      </c>
+      <c r="L22">
+        <v>1.0422304705117289E-5</v>
+      </c>
+      <c r="M22">
+        <v>0.1089982818860229</v>
+      </c>
+      <c r="N22">
+        <v>5.000418204965344E-5</v>
+      </c>
+      <c r="O22">
+        <v>-299110.67109610309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>2015</v>
       </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21">
-        <v>5.416987927538608E-06</v>
-      </c>
-      <c r="D21">
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>5.4169879275386078E-6</v>
+      </c>
+      <c r="D23">
         <v>0.1178911152427146</v>
       </c>
-      <c r="E21">
+      <c r="E23">
         <v>0.1059514233496837</v>
       </c>
-      <c r="F21">
-        <v>8.57627324488755E-05</v>
-      </c>
-      <c r="G21">
+      <c r="F23">
+        <v>8.5762732448875501E-5</v>
+      </c>
+      <c r="G23">
         <v>-301128.3737981756</v>
-      </c>
-      <c r="H21">
-        <v>91</v>
-      </c>
-      <c r="I21">
-        <v>5.5</v>
-      </c>
-      <c r="J21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22">
-        <v>2016</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22">
-        <v>5.104194441999999E-06</v>
-      </c>
-      <c r="D22">
-        <v>0.118086883032977</v>
-      </c>
-      <c r="E22">
-        <v>0.09255620684794701</v>
-      </c>
-      <c r="F22">
-        <v>1.5965163748E-05</v>
-      </c>
-      <c r="G22">
-        <v>-302708.2352948928</v>
-      </c>
-      <c r="H22">
-        <v>96</v>
-      </c>
-      <c r="I22">
-        <v>9</v>
-      </c>
-      <c r="J22">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23">
-        <v>2017</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23">
-        <v>5.122465634617868E-06</v>
-      </c>
-      <c r="D23">
-        <v>0.1177091739177376</v>
-      </c>
-      <c r="E23">
-        <v>0.0701836921832566</v>
-      </c>
-      <c r="F23">
-        <v>1.75186752198291E-05</v>
-      </c>
-      <c r="G23">
-        <v>-303816.6210931752</v>
       </c>
       <c r="H23">
         <v>91</v>
       </c>
       <c r="I23">
+        <v>5.5</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2016</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>5.1041944419999993E-6</v>
+      </c>
+      <c r="D24">
+        <v>0.118086883032977</v>
+      </c>
+      <c r="E24">
+        <v>9.2556206847947006E-2</v>
+      </c>
+      <c r="F24">
+        <v>1.5965163747999999E-5</v>
+      </c>
+      <c r="G24">
+        <v>-302708.2352948928</v>
+      </c>
+      <c r="H24">
+        <v>96</v>
+      </c>
+      <c r="I24">
+        <v>9</v>
+      </c>
+      <c r="J24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2017</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>5.1224656346178683E-6</v>
+      </c>
+      <c r="D25">
+        <v>0.11770917391773759</v>
+      </c>
+      <c r="E25">
+        <v>7.0183692183256596E-2</v>
+      </c>
+      <c r="F25">
+        <v>1.7518675219829099E-5</v>
+      </c>
+      <c r="G25">
+        <v>-303816.6210931752</v>
+      </c>
+      <c r="H25">
+        <v>91</v>
+      </c>
+      <c r="I25">
         <v>1</v>
       </c>
-      <c r="J23">
+      <c r="J25">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
-      <c r="A24">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>2018</v>
       </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24">
-        <v>5.103000380851934E-06</v>
-      </c>
-      <c r="D24">
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>5.1030003808519341E-6</v>
+      </c>
+      <c r="D26">
         <v>0.1175886036911621</v>
       </c>
-      <c r="E24">
-        <v>0.07152682549784645</v>
-      </c>
-      <c r="F24">
-        <v>1.59734308919947E-05</v>
-      </c>
-      <c r="G24">
+      <c r="E26">
+        <v>7.1526825497846447E-2</v>
+      </c>
+      <c r="F26">
+        <v>1.59734308919947E-5</v>
+      </c>
+      <c r="G26">
         <v>-303919.0790991176</v>
       </c>
-      <c r="H24">
+      <c r="H26">
         <v>93</v>
       </c>
-      <c r="I24">
+      <c r="I26">
         <v>6.5</v>
       </c>
-      <c r="J24">
+      <c r="J26">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
-      <c r="A25">
-        <v>2013</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25">
-        <v>5.169692293417489E-06</v>
-      </c>
-      <c r="D25">
-        <v>0.1195322001692696</v>
-      </c>
-      <c r="E25">
-        <v>0.1223315288988443</v>
-      </c>
-      <c r="F25">
-        <v>4.857667586759262E-05</v>
-      </c>
-      <c r="G25">
-        <v>-296824.8393119976</v>
-      </c>
-      <c r="H25">
-        <v>92</v>
-      </c>
-      <c r="I25">
-        <v>2.5</v>
-      </c>
-      <c r="J25">
-        <v>7</v>
-      </c>
-      <c r="K25">
-        <v>60.22252987785141</v>
-      </c>
-      <c r="L25">
-        <v>1.226935540390126E-05</v>
-      </c>
-      <c r="M25">
-        <v>0.1074331313777304</v>
-      </c>
-      <c r="N25">
-        <v>5.353154522710703E-05</v>
-      </c>
-      <c r="O25">
-        <v>-296937.1888210972</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26">
-        <v>2014</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26">
-        <v>5.106469002771463E-06</v>
-      </c>
-      <c r="D26">
-        <v>0.1191295652166255</v>
-      </c>
-      <c r="E26">
-        <v>0.1100537204669026</v>
-      </c>
-      <c r="F26">
-        <v>7.65882933020795E-05</v>
-      </c>
-      <c r="G26">
-        <v>-298997.4123504945</v>
-      </c>
-      <c r="H26">
-        <v>89</v>
-      </c>
-      <c r="I26">
-        <v>8.5</v>
-      </c>
-      <c r="J26">
-        <v>7</v>
-      </c>
-      <c r="K26">
-        <v>62.87608692580804</v>
-      </c>
-      <c r="L26">
-        <v>1.042230470511729E-05</v>
-      </c>
-      <c r="M26">
-        <v>0.1089982818860229</v>
-      </c>
-      <c r="N26">
-        <v>5.000418204965344E-05</v>
-      </c>
-      <c r="O26">
-        <v>-299110.6710961031</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O26">
+    <sortCondition ref="A1:A26"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/가중치 측정 결과.xlsx
+++ b/가중치 측정 결과.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\정태우\Desktop\ggm_analysis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06003AB2-67F2-49D7-B747-414DE352C67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -76,12 +70,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -89,15 +83,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -143,25 +130,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -199,7 +178,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -233,7 +212,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -268,10 +246,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -444,14 +421,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +475,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1973</v>
       </c>
@@ -506,19 +483,19 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>5.1202953354285356E-6</v>
+        <v>5.120295335428536E-06</v>
       </c>
       <c r="D2">
-        <v>0.12352240411999631</v>
+        <v>0.1235224041199963</v>
       </c>
       <c r="E2">
         <v>0.1752090093660599</v>
       </c>
       <c r="F2">
-        <v>5.7594607959060191E-3</v>
+        <v>0.005759460795906019</v>
       </c>
       <c r="G2">
-        <v>-235495.23427894301</v>
+        <v>-235495.234278943</v>
       </c>
       <c r="H2">
         <v>95</v>
@@ -530,22 +507,22 @@
         <v>14</v>
       </c>
       <c r="K2">
-        <v>76.772267525023878</v>
+        <v>76.77226752502388</v>
       </c>
       <c r="L2">
-        <v>3.9697422998873853E-5</v>
+        <v>3.969742299887385E-05</v>
       </c>
       <c r="M2">
-        <v>9.6705185241612396E-2</v>
+        <v>0.0967051852416124</v>
       </c>
       <c r="N2">
-        <v>4.8110025006657279E-5</v>
+        <v>4.811002500665728E-05</v>
       </c>
       <c r="O2">
         <v>-235566.7978089017</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>1979</v>
       </c>
@@ -553,7 +530,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>2.2720153237577439E-5</v>
+        <v>2.272015323757744E-05</v>
       </c>
       <c r="D3">
         <v>0.1129278457442329</v>
@@ -562,10 +539,10 @@
         <v>0.1864622291172649</v>
       </c>
       <c r="F3">
-        <v>1.6043178684862321E-2</v>
+        <v>0.01604317868486232</v>
       </c>
       <c r="G3">
-        <v>-171674.17209762539</v>
+        <v>-171674.1720976254</v>
       </c>
       <c r="H3">
         <v>91</v>
@@ -577,22 +554,22 @@
         <v>4</v>
       </c>
       <c r="K3">
-        <v>75.128649822557549</v>
+        <v>75.12864982255755</v>
       </c>
       <c r="L3">
-        <v>3.6667542684863988E-4</v>
+        <v>0.0003666754268486399</v>
       </c>
       <c r="M3">
-        <v>7.5674974686627497E-2</v>
+        <v>0.0756749746866275</v>
       </c>
       <c r="N3">
-        <v>9.9999999999999995E-7</v>
+        <v>1E-06</v>
       </c>
       <c r="O3">
-        <v>-171702.77730655219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>-171702.7773065522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>1979</v>
       </c>
@@ -600,16 +577,16 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>7.6166003839453077E-6</v>
+        <v>7.616600383945308E-06</v>
       </c>
       <c r="D4">
         <v>0.1178804069288247</v>
       </c>
       <c r="E4">
-        <v>0.16476403747928289</v>
+        <v>0.1647640374792829</v>
       </c>
       <c r="F4">
-        <v>4.3442706564564074E-3</v>
+        <v>0.004344270656456407</v>
       </c>
       <c r="G4">
         <v>-252833.1879456068</v>
@@ -624,22 +601,22 @@
         <v>2</v>
       </c>
       <c r="K4">
-        <v>75.874419077100782</v>
+        <v>75.87441907710078</v>
       </c>
       <c r="L4">
-        <v>4.480681645384582E-5</v>
+        <v>4.480681645384582E-05</v>
       </c>
       <c r="M4">
-        <v>9.4432977499231421E-2</v>
+        <v>0.09443297749923142</v>
       </c>
       <c r="N4">
-        <v>4.6902320453855359E-5</v>
+        <v>4.690232045385536E-05</v>
       </c>
       <c r="O4">
-        <v>-252899.00928328271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>-252899.0092832827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>1990</v>
       </c>
@@ -647,19 +624,19 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>7.0080209525097176E-6</v>
+        <v>7.008020952509718E-06</v>
       </c>
       <c r="D5">
-        <v>0.11782186844826741</v>
+        <v>0.1178218684482674</v>
       </c>
       <c r="E5">
         <v>0.1649360655476288</v>
       </c>
       <c r="F5">
-        <v>1.398811698938886E-4</v>
+        <v>0.0001398811698938886</v>
       </c>
       <c r="G5">
-        <v>-289513.35037369293</v>
+        <v>-289513.3503736929</v>
       </c>
       <c r="H5">
         <v>92</v>
@@ -671,22 +648,22 @@
         <v>4</v>
       </c>
       <c r="K5">
-        <v>61.704317734222428</v>
+        <v>61.70431773422243</v>
       </c>
       <c r="L5">
-        <v>2.4039611736199739E-5</v>
+        <v>2.403961173619974E-05</v>
       </c>
       <c r="M5">
         <v>0.100429873152296</v>
       </c>
       <c r="N5">
-        <v>4.986331839343625E-5</v>
+        <v>4.986331839343625E-05</v>
       </c>
       <c r="O5">
-        <v>-289651.10168449418</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>-289651.1016844942</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>1999</v>
       </c>
@@ -694,19 +671,19 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>3.9588872312553402E-5</v>
+        <v>3.95888723125534E-05</v>
       </c>
       <c r="D6">
-        <v>9.9713593891476229E-2</v>
+        <v>0.09971359389147623</v>
       </c>
       <c r="E6">
-        <v>9.9029826653005984E-2</v>
+        <v>0.09902982665300598</v>
       </c>
       <c r="F6">
-        <v>7.0671267836358576E-5</v>
+        <v>7.067126783635858E-05</v>
       </c>
       <c r="G6">
-        <v>-253197.92762123141</v>
+        <v>-253197.9276212314</v>
       </c>
       <c r="H6">
         <v>91</v>
@@ -718,22 +695,22 @@
         <v>7</v>
       </c>
       <c r="K6">
-        <v>53.813637815158032</v>
+        <v>53.81363781515803</v>
       </c>
       <c r="L6">
-        <v>8.4635967584546535E-5</v>
+        <v>8.463596758454653E-05</v>
       </c>
       <c r="M6">
-        <v>8.849082416062011E-2</v>
+        <v>0.08849082416062011</v>
       </c>
       <c r="N6">
-        <v>4.377129296688217E-5</v>
+        <v>4.377129296688217E-05</v>
       </c>
       <c r="O6">
-        <v>-253243.01658900961</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>-253243.0165890096</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -741,7 +718,7 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>3.3172882144797802E-5</v>
+        <v>3.31728821447978E-05</v>
       </c>
       <c r="D7">
         <v>0.101639519980862</v>
@@ -750,10 +727,10 @@
         <v>0.1021566248126435</v>
       </c>
       <c r="F7">
-        <v>4.0704011265553501E-5</v>
+        <v>4.07040112655535E-05</v>
       </c>
       <c r="G7">
-        <v>-257978.97086262229</v>
+        <v>-257978.9708626223</v>
       </c>
       <c r="H7">
         <v>91</v>
@@ -765,22 +742,22 @@
         <v>19</v>
       </c>
       <c r="K7">
-        <v>51.750493152659523</v>
+        <v>51.75049315265952</v>
       </c>
       <c r="L7">
-        <v>7.2669631738544891E-5</v>
+        <v>7.266963173854489E-05</v>
       </c>
       <c r="M7">
-        <v>9.0116851006870002E-2</v>
+        <v>0.09011685100687</v>
       </c>
       <c r="N7">
-        <v>4.4744062844985127E-5</v>
+        <v>4.474406284498513E-05</v>
       </c>
       <c r="O7">
-        <v>-258024.92298251289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>-258024.9229825129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>2001</v>
       </c>
@@ -788,19 +765,19 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>5.116918946508728E-6</v>
+        <v>5.116918946508728E-06</v>
       </c>
       <c r="D8">
         <v>0.1181961206337263</v>
       </c>
       <c r="E8">
-        <v>7.4517055409832486E-2</v>
+        <v>0.07451705540983249</v>
       </c>
       <c r="F8">
-        <v>2.5957460461637629E-5</v>
+        <v>2.595746046163763E-05</v>
       </c>
       <c r="G8">
-        <v>-311711.94454558071</v>
+        <v>-311711.9445455807</v>
       </c>
       <c r="H8">
         <v>93</v>
@@ -812,7 +789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>2001</v>
       </c>
@@ -820,19 +797,19 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>2.5176740120132459E-5</v>
+        <v>2.517674012013246E-05</v>
       </c>
       <c r="D9">
         <v>0.1046345809559471</v>
       </c>
       <c r="E9">
-        <v>0.10492809389762819</v>
+        <v>0.1049280938976282</v>
       </c>
       <c r="F9">
-        <v>8.075075782578954E-4</v>
+        <v>0.0008075075782578954</v>
       </c>
       <c r="G9">
-        <v>-262512.17265233537</v>
+        <v>-262512.1726523354</v>
       </c>
       <c r="H9">
         <v>91</v>
@@ -844,22 +821,22 @@
         <v>9</v>
       </c>
       <c r="K9">
-        <v>67.309365939220044</v>
+        <v>67.30936593922004</v>
       </c>
       <c r="L9">
-        <v>6.2200600585772637E-5</v>
+        <v>6.220060058577264E-05</v>
       </c>
       <c r="M9">
-        <v>9.1784000809521177E-2</v>
+        <v>0.09178400080952118</v>
       </c>
       <c r="N9">
-        <v>4.5621530307166868E-5</v>
+        <v>4.562153030716687E-05</v>
       </c>
       <c r="O9">
-        <v>-262559.24804016488</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>-262559.2480401649</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -867,7 +844,7 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>1.5361976120936661E-5</v>
+        <v>1.536197612093666E-05</v>
       </c>
       <c r="D10">
         <v>0.1105405060069439</v>
@@ -876,10 +853,10 @@
         <v>0.1222607779796246</v>
       </c>
       <c r="F10">
-        <v>2.053496634571141E-3</v>
+        <v>0.002053496634571141</v>
       </c>
       <c r="G10">
-        <v>-265883.11098144582</v>
+        <v>-265883.1109814458</v>
       </c>
       <c r="H10">
         <v>90</v>
@@ -891,22 +868,22 @@
         <v>14</v>
       </c>
       <c r="K10">
-        <v>72.064913860070874</v>
+        <v>72.06491386007087</v>
       </c>
       <c r="L10">
-        <v>4.9295038121464103E-5</v>
+        <v>4.92950381214641E-05</v>
       </c>
       <c r="M10">
-        <v>9.4493490602421112E-2</v>
+        <v>0.09449349060242111</v>
       </c>
       <c r="N10">
-        <v>4.6968067622699603E-5</v>
+        <v>4.69680676226996E-05</v>
       </c>
       <c r="O10">
-        <v>-265931.29271570232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+        <v>-265931.2927157023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>2003</v>
       </c>
@@ -914,7 +891,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>1.7515245852834931E-5</v>
+        <v>1.751524585283493E-05</v>
       </c>
       <c r="D11">
         <v>0.1080634152496853</v>
@@ -923,10 +900,10 @@
         <v>0.1045864894671084</v>
       </c>
       <c r="F11">
-        <v>1.855512833290988E-3</v>
+        <v>0.001855512833290988</v>
       </c>
       <c r="G11">
-        <v>-269678.99349502189</v>
+        <v>-269678.9934950219</v>
       </c>
       <c r="H11">
         <v>92</v>
@@ -938,22 +915,22 @@
         <v>14</v>
       </c>
       <c r="K11">
-        <v>72.623740090847633</v>
+        <v>72.62374009084763</v>
       </c>
       <c r="L11">
-        <v>4.7259026479627318E-5</v>
+        <v>4.725902647962732E-05</v>
       </c>
       <c r="M11">
-        <v>9.4442366014866358E-2</v>
+        <v>0.09444236601486636</v>
       </c>
       <c r="N11">
-        <v>4.6975108759601433E-5</v>
+        <v>4.697510875960143E-05</v>
       </c>
       <c r="O11">
         <v>-269716.5778321281</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>2004</v>
       </c>
@@ -961,19 +938,19 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>1.5686145890000271E-5</v>
+        <v>1.568614589000027E-05</v>
       </c>
       <c r="D12">
         <v>0.1092734253373342</v>
       </c>
       <c r="E12">
-        <v>0.11985146172682599</v>
+        <v>0.119851461726826</v>
       </c>
       <c r="F12">
-        <v>1.842477158701863E-3</v>
+        <v>0.001842477158701863</v>
       </c>
       <c r="G12">
-        <v>-273526.92900319397</v>
+        <v>-273526.929003194</v>
       </c>
       <c r="H12">
         <v>85</v>
@@ -985,22 +962,22 @@
         <v>15</v>
       </c>
       <c r="K12">
-        <v>72.236436528955451</v>
+        <v>72.23643652895545</v>
       </c>
       <c r="L12">
-        <v>4.7643536879723327E-5</v>
+        <v>4.764353687972333E-05</v>
       </c>
       <c r="M12">
-        <v>9.3996707786783845E-2</v>
+        <v>0.09399670778678385</v>
       </c>
       <c r="N12">
-        <v>4.669945360689021E-5</v>
+        <v>4.669945360689021E-05</v>
       </c>
       <c r="O12">
-        <v>-273570.76276466157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>-273570.7627646616</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>2005</v>
       </c>
@@ -1008,19 +985,19 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>1.1500921637207131E-5</v>
+        <v>1.150092163720713E-05</v>
       </c>
       <c r="D13">
-        <v>0.11249808172917861</v>
+        <v>0.1124980817291786</v>
       </c>
       <c r="E13">
-        <v>0.11637490225607069</v>
+        <v>0.1163749022560707</v>
       </c>
       <c r="F13">
-        <v>2.7026995997983532E-3</v>
+        <v>0.002702699599798353</v>
       </c>
       <c r="G13">
-        <v>-278058.15495766909</v>
+        <v>-278058.1549576691</v>
       </c>
       <c r="H13">
         <v>94</v>
@@ -1032,22 +1009,22 @@
         <v>14</v>
       </c>
       <c r="K13">
-        <v>74.933158800066067</v>
+        <v>74.93315880006607</v>
       </c>
       <c r="L13">
-        <v>3.8692545723111728E-5</v>
+        <v>3.869254572311173E-05</v>
       </c>
       <c r="M13">
-        <v>9.6265357821032196E-2</v>
+        <v>0.0962653578210322</v>
       </c>
       <c r="N13">
-        <v>4.7865487705945091E-5</v>
+        <v>4.786548770594509E-05</v>
       </c>
       <c r="O13">
-        <v>-278099.29216203757</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>-278099.2921620376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>2006</v>
       </c>
@@ -1055,7 +1032,7 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>9.7418732639713756E-6</v>
+        <v>9.741873263971376E-06</v>
       </c>
       <c r="D14">
         <v>0.1143724615882984</v>
@@ -1064,10 +1041,10 @@
         <v>0.1232205639032056</v>
       </c>
       <c r="F14">
-        <v>2.0832612157539489E-3</v>
+        <v>0.002083261215753949</v>
       </c>
       <c r="G14">
-        <v>-282219.04605447181</v>
+        <v>-282219.0460544718</v>
       </c>
       <c r="H14">
         <v>88</v>
@@ -1079,22 +1056,22 @@
         <v>16</v>
       </c>
       <c r="K14">
-        <v>73.808731703783067</v>
+        <v>73.80873170378307</v>
       </c>
       <c r="L14">
-        <v>3.257595273050469E-5</v>
+        <v>3.257595273050469E-05</v>
       </c>
       <c r="M14">
-        <v>9.8084100556494039E-2</v>
+        <v>0.09808410055649404</v>
       </c>
       <c r="N14">
-        <v>4.8346440475279861E-5</v>
+        <v>4.834644047527986E-05</v>
       </c>
       <c r="O14">
-        <v>-282276.05497997318</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <v>-282276.0549799732</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>2007</v>
       </c>
@@ -1102,19 +1079,19 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>9.3168277791137993E-6</v>
+        <v>9.316827779113799E-06</v>
       </c>
       <c r="D15">
         <v>0.1147885641783888</v>
       </c>
       <c r="E15">
-        <v>0.12998486051266059</v>
+        <v>0.1299848605126606</v>
       </c>
       <c r="F15">
-        <v>1.068991366037809E-3</v>
+        <v>0.001068991366037809</v>
       </c>
       <c r="G15">
-        <v>-285173.01531043352</v>
+        <v>-285173.0153104335</v>
       </c>
       <c r="H15">
         <v>90</v>
@@ -1126,22 +1103,22 @@
         <v>17</v>
       </c>
       <c r="K15">
-        <v>70.738809181054776</v>
+        <v>70.73880918105478</v>
       </c>
       <c r="L15">
-        <v>2.884408722711809E-5</v>
+        <v>2.884408722711809E-05</v>
       </c>
       <c r="M15">
-        <v>9.9190967555820242E-2</v>
+        <v>0.09919096755582024</v>
       </c>
       <c r="N15">
-        <v>4.9225012661918603E-5</v>
+        <v>4.92250126619186E-05</v>
       </c>
       <c r="O15">
-        <v>-285243.40622461919</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <v>-285243.4062246192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>2008</v>
       </c>
@@ -1149,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>6.9541116516138863E-6</v>
+        <v>6.954111651613886E-06</v>
       </c>
       <c r="D16">
-        <v>0.11782181629491929</v>
+        <v>0.1178218162949193</v>
       </c>
       <c r="E16">
-        <v>0.13672022103747369</v>
+        <v>0.1367202210374737</v>
       </c>
       <c r="F16">
-        <v>1.9690399607738E-3</v>
+        <v>0.0019690399607738</v>
       </c>
       <c r="G16">
-        <v>-287347.75027173932</v>
+        <v>-287347.7502717393</v>
       </c>
       <c r="H16">
         <v>94</v>
@@ -1173,22 +1150,22 @@
         <v>19</v>
       </c>
       <c r="K16">
-        <v>73.955020011744821</v>
+        <v>73.95502001174482</v>
       </c>
       <c r="L16">
-        <v>2.4735372698822169E-5</v>
+        <v>2.473537269882217E-05</v>
       </c>
       <c r="M16">
         <v>0.1007259457193298</v>
       </c>
       <c r="N16">
-        <v>5.0123647549330788E-5</v>
+        <v>5.012364754933079E-05</v>
       </c>
       <c r="O16">
-        <v>-287419.09538659657</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+        <v>-287419.0953865966</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>2009</v>
       </c>
@@ -1196,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>6.4950227402289958E-6</v>
+        <v>6.495022740228996E-06</v>
       </c>
       <c r="D17">
-        <v>0.11818177496834199</v>
+        <v>0.118181774968342</v>
       </c>
       <c r="E17">
-        <v>0.14660817486722749</v>
+        <v>0.1466081748672275</v>
       </c>
       <c r="F17">
-        <v>1.3651540028344409E-3</v>
+        <v>0.001365154002834441</v>
       </c>
       <c r="G17">
-        <v>-289469.55732798768</v>
+        <v>-289469.5573279877</v>
       </c>
       <c r="H17">
         <v>93</v>
@@ -1220,22 +1197,22 @@
         <v>18</v>
       </c>
       <c r="K17">
-        <v>72.440122296167289</v>
+        <v>72.44012229616729</v>
       </c>
       <c r="L17">
-        <v>2.2845099175107378E-5</v>
+        <v>2.284509917510738E-05</v>
       </c>
       <c r="M17">
-        <v>0.10099039355451229</v>
+        <v>0.1009903935545123</v>
       </c>
       <c r="N17">
-        <v>5.0208998686739431E-5</v>
+        <v>5.020899868673943E-05</v>
       </c>
       <c r="O17">
-        <v>-289551.53257705108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+        <v>-289551.5325770511</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>2010</v>
       </c>
@@ -1243,19 +1220,19 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>7.3902189554036352E-6</v>
+        <v>7.390218955403635E-06</v>
       </c>
       <c r="D18">
-        <v>0.11659752659529821</v>
+        <v>0.1165975265952982</v>
       </c>
       <c r="E18">
-        <v>0.13276480395904461</v>
+        <v>0.1327648039590446</v>
       </c>
       <c r="F18">
-        <v>1.7294715587086451E-4</v>
+        <v>0.0001729471558708645</v>
       </c>
       <c r="G18">
-        <v>-290217.65401257179</v>
+        <v>-290217.6540125718</v>
       </c>
       <c r="H18">
         <v>94</v>
@@ -1267,22 +1244,22 @@
         <v>10</v>
       </c>
       <c r="K18">
-        <v>63.692916598752078</v>
+        <v>63.69291659875208</v>
       </c>
       <c r="L18">
-        <v>1.9932424453513991E-5</v>
+        <v>1.993242445351399E-05</v>
       </c>
       <c r="M18">
         <v>0.1026138655243944</v>
       </c>
       <c r="N18">
-        <v>5.110501736151278E-5</v>
+        <v>5.110501736151278E-05</v>
       </c>
       <c r="O18">
         <v>-290315.4473324648</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>2011</v>
       </c>
@@ -1290,19 +1267,19 @@
         <v>16</v>
       </c>
       <c r="C19">
-        <v>5.3094097003819098E-6</v>
+        <v>5.30940970038191E-06</v>
       </c>
       <c r="D19">
-        <v>0.12006027783010501</v>
+        <v>0.120060277830105</v>
       </c>
       <c r="E19">
         <v>0.1157766407250445</v>
       </c>
       <c r="F19">
-        <v>6.35351021654507E-4</v>
+        <v>0.000635351021654507</v>
       </c>
       <c r="G19">
-        <v>-292010.64966714941</v>
+        <v>-292010.6496671494</v>
       </c>
       <c r="H19">
         <v>91</v>
@@ -1314,7 +1291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>2012</v>
       </c>
@@ -1322,19 +1299,19 @@
         <v>16</v>
       </c>
       <c r="C20">
-        <v>5.1506977968372291E-6</v>
+        <v>5.150697796837229E-06</v>
       </c>
       <c r="D20">
-        <v>0.12055874516351101</v>
+        <v>0.120558745163511</v>
       </c>
       <c r="E20">
-        <v>0.13199286894101839</v>
+        <v>0.1319928689410184</v>
       </c>
       <c r="F20">
-        <v>8.1504824497459494E-5</v>
+        <v>8.150482449745949E-05</v>
       </c>
       <c r="G20">
-        <v>-294058.51764521073</v>
+        <v>-294058.5176452107</v>
       </c>
       <c r="H20">
         <v>94</v>
@@ -1346,22 +1323,22 @@
         <v>9</v>
       </c>
       <c r="K20">
-        <v>61.617156215238623</v>
+        <v>61.61715621523862</v>
       </c>
       <c r="L20">
-        <v>1.346993264285558E-5</v>
+        <v>1.346993264285558E-05</v>
       </c>
       <c r="M20">
         <v>0.1070420163431406</v>
       </c>
       <c r="N20">
-        <v>5.3256833943768147E-5</v>
+        <v>5.325683394376815E-05</v>
       </c>
       <c r="O20">
-        <v>-294167.70572609961</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+        <v>-294167.7057260996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>2013</v>
       </c>
@@ -1369,7 +1346,7 @@
         <v>16</v>
       </c>
       <c r="C21">
-        <v>5.1696922934174887E-6</v>
+        <v>5.169692293417489E-06</v>
       </c>
       <c r="D21">
         <v>0.1195322001692696</v>
@@ -1378,10 +1355,10 @@
         <v>0.1223315288988443</v>
       </c>
       <c r="F21">
-        <v>4.8576675867592622E-5</v>
+        <v>4.857667586759262E-05</v>
       </c>
       <c r="G21">
-        <v>-296824.83931199758</v>
+        <v>-296824.8393119976</v>
       </c>
       <c r="H21">
         <v>92</v>
@@ -1393,201 +1370,197 @@
         <v>7</v>
       </c>
       <c r="K21">
-        <v>60.222529877851407</v>
+        <v>60.22252987785141</v>
       </c>
       <c r="L21">
-        <v>1.2269355403901261E-5</v>
+        <v>1.226935540390126E-05</v>
       </c>
       <c r="M21">
         <v>0.1074331313777304</v>
       </c>
       <c r="N21">
-        <v>5.3531545227107033E-5</v>
+        <v>5.353154522710703E-05</v>
       </c>
       <c r="O21">
         <v>-296937.1888210972</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15">
       <c r="A22">
+        <v>2015</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>5.416987927538608E-06</v>
+      </c>
+      <c r="D22">
+        <v>0.1178911152427146</v>
+      </c>
+      <c r="E22">
+        <v>0.1059514233496837</v>
+      </c>
+      <c r="F22">
+        <v>8.57627324488755E-05</v>
+      </c>
+      <c r="G22">
+        <v>-301128.3737981756</v>
+      </c>
+      <c r="H22">
+        <v>91</v>
+      </c>
+      <c r="I22">
+        <v>5.5</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23">
+        <v>2016</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>5.104194441999999E-06</v>
+      </c>
+      <c r="D23">
+        <v>0.118086883032977</v>
+      </c>
+      <c r="E23">
+        <v>0.09255620684794701</v>
+      </c>
+      <c r="F23">
+        <v>1.5965163748E-05</v>
+      </c>
+      <c r="G23">
+        <v>-302708.2352948928</v>
+      </c>
+      <c r="H23">
+        <v>96</v>
+      </c>
+      <c r="I23">
+        <v>9</v>
+      </c>
+      <c r="J23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24">
+        <v>2017</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>5.122465634617868E-06</v>
+      </c>
+      <c r="D24">
+        <v>0.1177091739177376</v>
+      </c>
+      <c r="E24">
+        <v>0.0701836921832566</v>
+      </c>
+      <c r="F24">
+        <v>1.75186752198291E-05</v>
+      </c>
+      <c r="G24">
+        <v>-303816.6210931752</v>
+      </c>
+      <c r="H24">
+        <v>91</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25">
+        <v>2018</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>5.103000380851934E-06</v>
+      </c>
+      <c r="D25">
+        <v>0.1175886036911621</v>
+      </c>
+      <c r="E25">
+        <v>0.07152682549784645</v>
+      </c>
+      <c r="F25">
+        <v>1.59734308919947E-05</v>
+      </c>
+      <c r="G25">
+        <v>-303919.0790991176</v>
+      </c>
+      <c r="H25">
+        <v>93</v>
+      </c>
+      <c r="I25">
+        <v>6.5</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26">
         <v>2014</v>
       </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22">
-        <v>5.1064690027714634E-6</v>
-      </c>
-      <c r="D22">
-        <v>0.1191295652166255</v>
-      </c>
-      <c r="E22">
-        <v>0.11005372046690259</v>
-      </c>
-      <c r="F22">
-        <v>7.6588293302079502E-5</v>
-      </c>
-      <c r="G22">
-        <v>-298997.41235049447</v>
-      </c>
-      <c r="H22">
-        <v>89</v>
-      </c>
-      <c r="I22">
-        <v>8.5</v>
-      </c>
-      <c r="J22">
-        <v>7</v>
-      </c>
-      <c r="K22">
-        <v>62.876086925808039</v>
-      </c>
-      <c r="L22">
-        <v>1.0422304705117289E-5</v>
-      </c>
-      <c r="M22">
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>5.110252214321704E-06</v>
+      </c>
+      <c r="D26">
+        <v>0.1190416524061576</v>
+      </c>
+      <c r="E26">
+        <v>0.1081947363123557</v>
+      </c>
+      <c r="F26">
+        <v>3.109343111891427E-05</v>
+      </c>
+      <c r="G26">
+        <v>-298996.6927132821</v>
+      </c>
+      <c r="H26">
+        <v>90</v>
+      </c>
+      <c r="I26">
+        <v>9</v>
+      </c>
+      <c r="J26">
+        <v>19</v>
+      </c>
+      <c r="K26">
+        <v>59.18494862471835</v>
+      </c>
+      <c r="L26">
+        <v>1.042230470511729E-05</v>
+      </c>
+      <c r="M26">
         <v>0.1089982818860229</v>
       </c>
-      <c r="N22">
-        <v>5.000418204965344E-5</v>
-      </c>
-      <c r="O22">
-        <v>-299110.67109610309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>2015</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23">
-        <v>5.4169879275386078E-6</v>
-      </c>
-      <c r="D23">
-        <v>0.1178911152427146</v>
-      </c>
-      <c r="E23">
-        <v>0.1059514233496837</v>
-      </c>
-      <c r="F23">
-        <v>8.5762732448875501E-5</v>
-      </c>
-      <c r="G23">
-        <v>-301128.3737981756</v>
-      </c>
-      <c r="H23">
-        <v>91</v>
-      </c>
-      <c r="I23">
-        <v>5.5</v>
-      </c>
-      <c r="J23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>2016</v>
-      </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24">
-        <v>5.1041944419999993E-6</v>
-      </c>
-      <c r="D24">
-        <v>0.118086883032977</v>
-      </c>
-      <c r="E24">
-        <v>9.2556206847947006E-2</v>
-      </c>
-      <c r="F24">
-        <v>1.5965163747999999E-5</v>
-      </c>
-      <c r="G24">
-        <v>-302708.2352948928</v>
-      </c>
-      <c r="H24">
-        <v>96</v>
-      </c>
-      <c r="I24">
-        <v>9</v>
-      </c>
-      <c r="J24">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>2017</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25">
-        <v>5.1224656346178683E-6</v>
-      </c>
-      <c r="D25">
-        <v>0.11770917391773759</v>
-      </c>
-      <c r="E25">
-        <v>7.0183692183256596E-2</v>
-      </c>
-      <c r="F25">
-        <v>1.7518675219829099E-5</v>
-      </c>
-      <c r="G25">
-        <v>-303816.6210931752</v>
-      </c>
-      <c r="H25">
-        <v>91</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>2018</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26">
-        <v>5.1030003808519341E-6</v>
-      </c>
-      <c r="D26">
-        <v>0.1175886036911621</v>
-      </c>
-      <c r="E26">
-        <v>7.1526825497846447E-2</v>
-      </c>
-      <c r="F26">
-        <v>1.59734308919947E-5</v>
-      </c>
-      <c r="G26">
-        <v>-303919.0790991176</v>
-      </c>
-      <c r="H26">
-        <v>93</v>
-      </c>
-      <c r="I26">
-        <v>6.5</v>
-      </c>
-      <c r="J26">
-        <v>8</v>
+      <c r="N26">
+        <v>5.000418204965344E-05</v>
+      </c>
+      <c r="O26">
+        <v>-299110.6710961031</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O26">
-    <sortCondition ref="A1:A26"/>
-  </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/가중치 측정 결과.xlsx
+++ b/가중치 측정 결과.xlsx
@@ -1521,19 +1521,19 @@
         <v>16</v>
       </c>
       <c r="C26">
-        <v>5.110252214321704E-06</v>
+        <v>5.183199943647814E-06</v>
       </c>
       <c r="D26">
-        <v>0.1190416524061576</v>
+        <v>0.1188714914583274</v>
       </c>
       <c r="E26">
-        <v>0.1081947363123557</v>
+        <v>0.1118842911362234</v>
       </c>
       <c r="F26">
-        <v>3.109343111891427E-05</v>
+        <v>0.0003509490760988873</v>
       </c>
       <c r="G26">
-        <v>-298996.6927132821</v>
+        <v>-299003.4737048764</v>
       </c>
       <c r="H26">
         <v>90</v>
@@ -1545,7 +1545,7 @@
         <v>19</v>
       </c>
       <c r="K26">
-        <v>59.18494862471835</v>
+        <v>69.25561586123327</v>
       </c>
       <c r="L26">
         <v>1.042230470511729E-05</v>
